--- a/00_raw_data/GHG_Stage1_submitted-2022-11-21.xlsx
+++ b/00_raw_data/GHG_Stage1_submitted-2022-11-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sea/PycharmProjects/CRF22_Airplanes/00_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2F665-CA1E-1644-B24E-11F8A5C86AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C116ECA-7E27-E94F-928E-CEC245CDE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1141,10 +1141,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1386,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1554,12 +1555,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,6 +1571,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="58"/>
+    <col min="1" max="1" width="9.1640625" style="56"/>
     <col min="2" max="2" width="91.5" style="1" customWidth="1"/>
     <col min="3" max="1025" width="9.1640625" style="2"/>
   </cols>
@@ -2067,7 +2072,7 @@
       </c>
     </row>
     <row r="6" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2087,13 +2092,13 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="63"/>
+      <c r="B10" s="61"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
+      <c r="B11" s="61"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
+      <c r="B12" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2105,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2179,7 +2184,7 @@
       <c r="B8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2239,9 +2244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S483"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2254,9 @@
     <col min="1" max="1" width="57.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="8" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="65" customWidth="1"/>
+    <col min="6" max="8" width="19.33203125" customWidth="1"/>
     <col min="10" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" customWidth="1"/>
     <col min="13" max="17" width="25" customWidth="1"/>
@@ -2271,7 +2278,7 @@
       <c r="D1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="62" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="42" t="s">
@@ -2330,7 +2337,7 @@
       <c r="D2" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="63">
         <v>0.419375</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -2370,7 +2377,7 @@
       <c r="R2" s="39">
         <v>1</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S2" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2387,7 +2394,7 @@
       <c r="D3" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="63">
         <v>0.42151620370370363</v>
       </c>
       <c r="F3" s="34" t="s">
@@ -2427,7 +2434,7 @@
       <c r="R3" s="39">
         <v>1</v>
       </c>
-      <c r="S3" s="56">
+      <c r="S3" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2444,7 +2451,7 @@
       <c r="D4" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="63">
         <v>0.42414351851851856</v>
       </c>
       <c r="F4" s="34" t="s">
@@ -2484,7 +2491,7 @@
       <c r="R4" s="39">
         <v>1</v>
       </c>
-      <c r="S4" s="56">
+      <c r="S4" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2501,7 +2508,7 @@
       <c r="D5" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="63">
         <v>0.42643518518518492</v>
       </c>
       <c r="F5" s="34" t="s">
@@ -2541,7 +2548,7 @@
       <c r="R5" s="39">
         <v>1</v>
       </c>
-      <c r="S5" s="56">
+      <c r="S5" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2558,7 +2565,7 @@
       <c r="D6" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="63">
         <v>0.42857638888888855</v>
       </c>
       <c r="F6" s="34" t="s">
@@ -2598,7 +2605,7 @@
       <c r="R6" s="39">
         <v>1</v>
       </c>
-      <c r="S6" s="56">
+      <c r="S6" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2615,7 +2622,7 @@
       <c r="D7" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="63">
         <v>0.43056712962962923</v>
       </c>
       <c r="F7" s="34" t="s">
@@ -2655,7 +2662,7 @@
       <c r="R7" s="39">
         <v>1</v>
       </c>
-      <c r="S7" s="56">
+      <c r="S7" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2672,7 +2679,7 @@
       <c r="D8" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="63">
         <v>0.43280092592592551</v>
       </c>
       <c r="F8" s="34" t="s">
@@ -2712,7 +2719,7 @@
       <c r="R8" s="39">
         <v>1</v>
       </c>
-      <c r="S8" s="56">
+      <c r="S8" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2729,7 +2736,7 @@
       <c r="D9" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="63">
         <v>0.43461805555555516</v>
       </c>
       <c r="F9" s="34" t="s">
@@ -2769,7 +2776,7 @@
       <c r="R9" s="39">
         <v>1</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2786,7 +2793,7 @@
       <c r="D10" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="63">
         <v>0.43687499999999962</v>
       </c>
       <c r="F10" s="34" t="s">
@@ -2826,7 +2833,7 @@
       <c r="R10" s="39">
         <v>1</v>
       </c>
-      <c r="S10" s="56">
+      <c r="S10" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2843,7 +2850,7 @@
       <c r="D11" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="63">
         <v>0.43888888888888861</v>
       </c>
       <c r="F11" s="34" t="s">
@@ -2883,7 +2890,7 @@
       <c r="R11" s="39">
         <v>1</v>
       </c>
-      <c r="S11" s="56">
+      <c r="S11" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2900,7 +2907,7 @@
       <c r="D12" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="63">
         <v>0.44120370370370338</v>
       </c>
       <c r="F12" s="34" t="s">
@@ -2940,7 +2947,7 @@
       <c r="R12" s="39">
         <v>1</v>
       </c>
-      <c r="S12" s="56">
+      <c r="S12" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2957,7 +2964,7 @@
       <c r="D13" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="63">
         <v>0.44324074074074044</v>
       </c>
       <c r="F13" s="34" t="s">
@@ -2997,7 +3004,7 @@
       <c r="R13" s="39">
         <v>1</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3014,7 +3021,7 @@
       <c r="D14" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="63">
         <v>0.44561342592592551</v>
       </c>
       <c r="F14" s="34" t="s">
@@ -3054,7 +3061,7 @@
       <c r="R14" s="39">
         <v>1</v>
       </c>
-      <c r="S14" s="56">
+      <c r="S14" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3071,7 +3078,7 @@
       <c r="D15" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="63">
         <v>0.44776620370370329</v>
       </c>
       <c r="F15" s="34" t="s">
@@ -3111,7 +3118,7 @@
       <c r="R15" s="39">
         <v>1</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S15" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3128,7 +3135,7 @@
       <c r="D16" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="63">
         <v>0.4501157407407404</v>
       </c>
       <c r="F16" s="34" t="s">
@@ -3168,7 +3175,7 @@
       <c r="R16" s="39">
         <v>1</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3185,7 +3192,7 @@
       <c r="D17" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="63">
         <v>0.45230324074074041</v>
       </c>
       <c r="F17" s="34" t="s">
@@ -3225,7 +3232,7 @@
       <c r="R17" s="39">
         <v>1</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3242,7 +3249,7 @@
       <c r="D18" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="63">
         <v>0.45456018518518487</v>
       </c>
       <c r="F18" s="34" t="s">
@@ -3282,7 +3289,7 @@
       <c r="R18" s="39">
         <v>1</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3299,7 +3306,7 @@
       <c r="D19" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="63">
         <v>0.4568055555555553</v>
       </c>
       <c r="F19" s="34" t="s">
@@ -3339,7 +3346,7 @@
       <c r="R19" s="39">
         <v>1</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3356,7 +3363,7 @@
       <c r="D20" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="63">
         <v>0.45912037037036996</v>
       </c>
       <c r="F20" s="34" t="s">
@@ -3396,7 +3403,7 @@
       <c r="R20" s="39">
         <v>1</v>
       </c>
-      <c r="S20" s="56">
+      <c r="S20" s="54">
         <v>2</v>
       </c>
     </row>
@@ -3413,7 +3420,7 @@
       <c r="D21" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="63">
         <v>0.46130787037037008</v>
       </c>
       <c r="F21" s="34" t="s">
@@ -3453,7 +3460,7 @@
       <c r="R21" s="39">
         <v>1</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3470,7 +3477,7 @@
       <c r="D22" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="63">
         <v>0.46356481481481443</v>
       </c>
       <c r="F22" s="34" t="s">
@@ -3510,7 +3517,7 @@
       <c r="R22" s="39">
         <v>1</v>
       </c>
-      <c r="S22" s="56">
+      <c r="S22" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3527,7 +3534,7 @@
       <c r="D23" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="63">
         <v>0.46589120370370335</v>
       </c>
       <c r="F23" s="34" t="s">
@@ -3567,7 +3574,7 @@
       <c r="R23" s="39">
         <v>1</v>
       </c>
-      <c r="S23" s="56">
+      <c r="S23" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3584,7 +3591,7 @@
       <c r="D24" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="63">
         <v>0.46840277777777745</v>
       </c>
       <c r="F24" s="34" t="s">
@@ -3624,7 +3631,7 @@
       <c r="R24" s="39">
         <v>1</v>
       </c>
-      <c r="S24" s="56">
+      <c r="S24" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3641,7 +3648,7 @@
       <c r="D25" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="63">
         <v>0.47062499999999968</v>
       </c>
       <c r="F25" s="34" t="s">
@@ -3681,7 +3688,7 @@
       <c r="R25" s="39">
         <v>1</v>
       </c>
-      <c r="S25" s="56">
+      <c r="S25" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3698,7 +3705,7 @@
       <c r="D26" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="63">
         <v>0.47307870370370336</v>
       </c>
       <c r="F26" s="34" t="s">
@@ -3738,7 +3745,7 @@
       <c r="R26" s="39">
         <v>1</v>
       </c>
-      <c r="S26" s="56">
+      <c r="S26" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3755,7 +3762,7 @@
       <c r="D27" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="63">
         <v>0.47521990740740699</v>
       </c>
       <c r="F27" s="34" t="s">
@@ -3795,7 +3802,7 @@
       <c r="R27" s="39">
         <v>1</v>
       </c>
-      <c r="S27" s="56">
+      <c r="S27" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3812,7 +3819,7 @@
       <c r="D28" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="63">
         <v>0.47755787037036995</v>
       </c>
       <c r="F28" s="34" t="s">
@@ -3852,7 +3859,7 @@
       <c r="R28" s="39">
         <v>1</v>
       </c>
-      <c r="S28" s="56">
+      <c r="S28" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3869,7 +3876,7 @@
       <c r="D29" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="63">
         <v>0.47979166666666634</v>
       </c>
       <c r="F29" s="34" t="s">
@@ -3909,7 +3916,7 @@
       <c r="R29" s="39">
         <v>1</v>
       </c>
-      <c r="S29" s="56">
+      <c r="S29" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3926,7 +3933,7 @@
       <c r="D30" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="63">
         <v>0.48216435185185152</v>
       </c>
       <c r="F30" s="34" t="s">
@@ -3966,7 +3973,7 @@
       <c r="R30" s="39">
         <v>1</v>
       </c>
-      <c r="S30" s="56">
+      <c r="S30" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3983,7 +3990,7 @@
       <c r="D31" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="63">
         <v>0.48454861111111075</v>
       </c>
       <c r="F31" s="34" t="s">
@@ -4023,7 +4030,7 @@
       <c r="R31" s="39">
         <v>1</v>
       </c>
-      <c r="S31" s="56">
+      <c r="S31" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4040,7 +4047,7 @@
       <c r="D32" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="63">
         <v>0.48700231481481443</v>
       </c>
       <c r="F32" s="34" t="s">
@@ -4080,7 +4087,7 @@
       <c r="R32" s="39">
         <v>1</v>
       </c>
-      <c r="S32" s="56">
+      <c r="S32" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4097,7 +4104,7 @@
       <c r="D33" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="63">
         <v>0.4893981481481478</v>
       </c>
       <c r="F33" s="34" t="s">
@@ -4137,7 +4144,7 @@
       <c r="R33" s="39">
         <v>1</v>
       </c>
-      <c r="S33" s="56">
+      <c r="S33" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4154,7 +4161,7 @@
       <c r="D34" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="63">
         <v>0.49196759259259221</v>
       </c>
       <c r="F34" s="34" t="s">
@@ -4194,7 +4201,7 @@
       <c r="R34" s="39">
         <v>1</v>
       </c>
-      <c r="S34" s="56">
+      <c r="S34" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4211,7 +4218,7 @@
       <c r="D35" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="63">
         <v>0.49430555555555517</v>
       </c>
       <c r="F35" s="34" t="s">
@@ -4251,7 +4258,7 @@
       <c r="R35" s="39">
         <v>1</v>
       </c>
-      <c r="S35" s="56">
+      <c r="S35" s="54">
         <v>4</v>
       </c>
     </row>
@@ -4268,7 +4275,7 @@
       <c r="D36" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="63">
         <v>0.49684027777777745</v>
       </c>
       <c r="F36" s="34" t="s">
@@ -4308,7 +4315,7 @@
       <c r="R36" s="39">
         <v>1</v>
       </c>
-      <c r="S36" s="56">
+      <c r="S36" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4325,7 +4332,7 @@
       <c r="D37" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="63">
         <v>0.49924768518518486</v>
       </c>
       <c r="F37" s="34" t="s">
@@ -4365,7 +4372,7 @@
       <c r="R37" s="39">
         <v>1</v>
       </c>
-      <c r="S37" s="56">
+      <c r="S37" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4382,7 +4389,7 @@
       <c r="D38" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="63">
         <v>0.50162037037036988</v>
       </c>
       <c r="F38" s="34" t="s">
@@ -4422,7 +4429,7 @@
       <c r="R38" s="39">
         <v>1</v>
       </c>
-      <c r="S38" s="56">
+      <c r="S38" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4439,7 +4446,7 @@
       <c r="D39" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="63">
         <v>0.50402777777777752</v>
       </c>
       <c r="F39" s="34" t="s">
@@ -4479,7 +4486,7 @@
       <c r="R39" s="39">
         <v>2</v>
       </c>
-      <c r="S39" s="56">
+      <c r="S39" s="54">
         <v>4</v>
       </c>
     </row>
@@ -4496,7 +4503,7 @@
       <c r="D40" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="63">
         <v>0.50650462962962939</v>
       </c>
       <c r="F40" s="34" t="s">
@@ -4536,7 +4543,7 @@
       <c r="R40" s="39">
         <v>1</v>
       </c>
-      <c r="S40" s="56">
+      <c r="S40" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4553,7 +4560,7 @@
       <c r="D41" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="63">
         <v>0.50891203703703658</v>
       </c>
       <c r="F41" s="34" t="s">
@@ -4593,7 +4600,7 @@
       <c r="R41" s="39">
         <v>1</v>
       </c>
-      <c r="S41" s="56">
+      <c r="S41" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4610,7 +4617,7 @@
       <c r="D42" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="63">
         <v>0.51157407407407374</v>
       </c>
       <c r="F42" s="34" t="s">
@@ -4650,7 +4657,7 @@
       <c r="R42" s="39">
         <v>1</v>
       </c>
-      <c r="S42" s="56">
+      <c r="S42" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4667,7 +4674,7 @@
       <c r="D43" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="63">
         <v>0.51381944444444416</v>
       </c>
       <c r="F43" s="34" t="s">
@@ -4707,7 +4714,7 @@
       <c r="R43" s="39">
         <v>1</v>
       </c>
-      <c r="S43" s="56">
+      <c r="S43" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4724,7 +4731,7 @@
       <c r="D44" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="63">
         <v>0.51628472222222177</v>
       </c>
       <c r="F44" s="34" t="s">
@@ -4764,7 +4771,7 @@
       <c r="R44" s="39">
         <v>1</v>
       </c>
-      <c r="S44" s="56">
+      <c r="S44" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4781,7 +4788,7 @@
       <c r="D45" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="63">
         <v>0.51861111111111069</v>
       </c>
       <c r="F45" s="34" t="s">
@@ -4821,7 +4828,7 @@
       <c r="R45" s="39">
         <v>1</v>
       </c>
-      <c r="S45" s="56">
+      <c r="S45" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4838,7 +4845,7 @@
       <c r="D46" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="63">
         <v>0.5210995370370366</v>
       </c>
       <c r="F46" s="34" t="s">
@@ -4878,7 +4885,7 @@
       <c r="R46" s="39">
         <v>1</v>
       </c>
-      <c r="S46" s="56">
+      <c r="S46" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4895,7 +4902,7 @@
       <c r="D47" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="54">
+      <c r="E47" s="63">
         <v>0.52343749999999956</v>
       </c>
       <c r="F47" s="34" t="s">
@@ -4935,7 +4942,7 @@
       <c r="R47" s="39">
         <v>1</v>
       </c>
-      <c r="S47" s="56">
+      <c r="S47" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4952,7 +4959,7 @@
       <c r="D48" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="54">
+      <c r="E48" s="63">
         <v>0.52582175925925889</v>
       </c>
       <c r="F48" s="34" t="s">
@@ -4992,7 +4999,7 @@
       <c r="R48" s="39">
         <v>1</v>
       </c>
-      <c r="S48" s="56">
+      <c r="S48" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5009,7 +5016,7 @@
       <c r="D49" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="54">
+      <c r="E49" s="63">
         <v>0.52820601851851823</v>
       </c>
       <c r="F49" s="34" t="s">
@@ -5049,7 +5056,7 @@
       <c r="R49" s="39">
         <v>1</v>
       </c>
-      <c r="S49" s="56">
+      <c r="S49" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5066,7 +5073,7 @@
       <c r="D50" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E50" s="63">
         <v>0.53084490740740709</v>
       </c>
       <c r="F50" s="34" t="s">
@@ -5106,7 +5113,7 @@
       <c r="R50" s="39">
         <v>1</v>
       </c>
-      <c r="S50" s="56">
+      <c r="S50" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5123,7 +5130,7 @@
       <c r="D51" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="63">
         <v>0.53299768518518476</v>
       </c>
       <c r="F51" s="34" t="s">
@@ -5163,7 +5170,7 @@
       <c r="R51" s="39">
         <v>1</v>
       </c>
-      <c r="S51" s="56">
+      <c r="S51" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5180,7 +5187,7 @@
       <c r="D52" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E52" s="54">
+      <c r="E52" s="63">
         <v>0.53545138888888855</v>
       </c>
       <c r="F52" s="34" t="s">
@@ -5220,7 +5227,7 @@
       <c r="R52" s="39">
         <v>1</v>
       </c>
-      <c r="S52" s="56">
+      <c r="S52" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5237,7 +5244,7 @@
       <c r="D53" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="54">
+      <c r="E53" s="63">
         <v>0.53759259259259218</v>
       </c>
       <c r="F53" s="34" t="s">
@@ -5277,7 +5284,7 @@
       <c r="R53" s="39">
         <v>1</v>
       </c>
-      <c r="S53" s="56">
+      <c r="S53" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5294,7 +5301,7 @@
       <c r="D54" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E54" s="54">
+      <c r="E54" s="63">
         <v>0.54003472222222193</v>
       </c>
       <c r="F54" s="34" t="s">
@@ -5334,7 +5341,7 @@
       <c r="R54" s="39">
         <v>1</v>
       </c>
-      <c r="S54" s="56">
+      <c r="S54" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5351,7 +5358,7 @@
       <c r="D55" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E55" s="54">
+      <c r="E55" s="63">
         <v>0.54228009259259213</v>
       </c>
       <c r="F55" s="34" t="s">
@@ -5391,7 +5398,7 @@
       <c r="R55" s="39">
         <v>1</v>
       </c>
-      <c r="S55" s="56">
+      <c r="S55" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5408,7 +5415,7 @@
       <c r="D56" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E56" s="54">
+      <c r="E56" s="63">
         <v>0.54467592592592551</v>
       </c>
       <c r="F56" s="34" t="s">
@@ -5448,7 +5455,7 @@
       <c r="R56" s="39">
         <v>1</v>
       </c>
-      <c r="S56" s="56">
+      <c r="S56" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5465,7 +5472,7 @@
       <c r="D57" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E57" s="54">
+      <c r="E57" s="63">
         <v>0.5496990740740737</v>
       </c>
       <c r="F57" s="34" t="s">
@@ -5505,7 +5512,7 @@
       <c r="R57" s="39">
         <v>1</v>
       </c>
-      <c r="S57" s="56">
+      <c r="S57" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5522,7 +5529,7 @@
       <c r="D58" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="63">
         <v>0.55207175925925878</v>
       </c>
       <c r="F58" s="34" t="s">
@@ -5562,7 +5569,7 @@
       <c r="R58" s="39">
         <v>1</v>
       </c>
-      <c r="S58" s="56">
+      <c r="S58" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5579,7 +5586,7 @@
       <c r="D59" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="63">
         <v>0.55460648148148106</v>
       </c>
       <c r="F59" s="34" t="s">
@@ -5619,7 +5626,7 @@
       <c r="R59" s="39">
         <v>1</v>
       </c>
-      <c r="S59" s="56">
+      <c r="S59" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5636,7 +5643,7 @@
       <c r="D60" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="63">
         <v>0.55689814814814786</v>
       </c>
       <c r="F60" s="34" t="s">
@@ -5676,7 +5683,7 @@
       <c r="R60" s="39">
         <v>1</v>
       </c>
-      <c r="S60" s="56">
+      <c r="S60" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5693,7 +5700,7 @@
       <c r="D61" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E61" s="54">
+      <c r="E61" s="63">
         <v>0.56413194444444414</v>
       </c>
       <c r="F61" s="34" t="s">
@@ -5733,7 +5740,7 @@
       <c r="R61" s="39">
         <v>1</v>
       </c>
-      <c r="S61" s="56">
+      <c r="S61" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5750,7 +5757,7 @@
       <c r="D62" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E62" s="54">
+      <c r="E62" s="63">
         <v>0.56653935185185156</v>
       </c>
       <c r="F62" s="34" t="s">
@@ -5790,7 +5797,7 @@
       <c r="R62" s="39">
         <v>1</v>
       </c>
-      <c r="S62" s="56">
+      <c r="S62" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5807,7 +5814,7 @@
       <c r="D63" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E63" s="54">
+      <c r="E63" s="63">
         <v>0.56855324074074032</v>
       </c>
       <c r="F63" s="34" t="s">
@@ -5847,7 +5854,7 @@
       <c r="R63" s="39">
         <v>1</v>
       </c>
-      <c r="S63" s="56">
+      <c r="S63" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5864,7 +5871,7 @@
       <c r="D64" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E64" s="54">
+      <c r="E64" s="63">
         <v>0.57106481481481453</v>
       </c>
       <c r="F64" s="34" t="s">
@@ -5904,7 +5911,7 @@
       <c r="R64" s="39">
         <v>1</v>
       </c>
-      <c r="S64" s="56">
+      <c r="S64" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5921,7 +5928,7 @@
       <c r="D65" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="63">
         <v>0.57333333333333303</v>
       </c>
       <c r="F65" s="34" t="s">
@@ -5961,7 +5968,7 @@
       <c r="R65" s="39">
         <v>1</v>
       </c>
-      <c r="S65" s="56">
+      <c r="S65" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5978,7 +5985,7 @@
       <c r="D66" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="54">
+      <c r="E66" s="63">
         <v>0.57579861111111086</v>
       </c>
       <c r="F66" s="34" t="s">
@@ -6018,7 +6025,7 @@
       <c r="R66" s="39">
         <v>1</v>
       </c>
-      <c r="S66" s="56">
+      <c r="S66" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6035,7 +6042,7 @@
       <c r="D67" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="63">
         <v>0.57804398148148106</v>
       </c>
       <c r="F67" s="34" t="s">
@@ -6075,7 +6082,7 @@
       <c r="R67" s="39">
         <v>1</v>
       </c>
-      <c r="S67" s="56">
+      <c r="S67" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6092,7 +6099,7 @@
       <c r="D68" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="63">
         <v>0.58043981481481444</v>
       </c>
       <c r="F68" s="34" t="s">
@@ -6132,7 +6139,7 @@
       <c r="R68" s="39">
         <v>1</v>
       </c>
-      <c r="S68" s="56">
+      <c r="S68" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6149,7 +6156,7 @@
       <c r="D69" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="63">
         <v>0.58267361111111082</v>
       </c>
       <c r="F69" s="34" t="s">
@@ -6189,7 +6196,7 @@
       <c r="R69" s="39">
         <v>1</v>
       </c>
-      <c r="S69" s="56">
+      <c r="S69" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6206,7 +6213,7 @@
       <c r="D70" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E70" s="54">
+      <c r="E70" s="63">
         <v>0.40155092592592551</v>
       </c>
       <c r="F70" s="34" t="s">
@@ -6246,7 +6253,7 @@
       <c r="R70" s="39">
         <v>1</v>
       </c>
-      <c r="S70" s="56">
+      <c r="S70" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6263,7 +6270,7 @@
       <c r="D71" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E71" s="54">
+      <c r="E71" s="63">
         <v>0.40361111111111075</v>
       </c>
       <c r="F71" s="34" t="s">
@@ -6303,7 +6310,7 @@
       <c r="R71" s="39">
         <v>1</v>
       </c>
-      <c r="S71" s="56">
+      <c r="S71" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6320,7 +6327,7 @@
       <c r="D72" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="63">
         <v>0.40646990740740702</v>
       </c>
       <c r="F72" s="34" t="s">
@@ -6360,7 +6367,7 @@
       <c r="R72" s="39">
         <v>1</v>
       </c>
-      <c r="S72" s="56">
+      <c r="S72" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6377,7 +6384,7 @@
       <c r="D73" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="63">
         <v>0.40857638888888853</v>
       </c>
       <c r="F73" s="34" t="s">
@@ -6417,7 +6424,7 @@
       <c r="R73" s="39">
         <v>1</v>
       </c>
-      <c r="S73" s="56">
+      <c r="S73" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6434,7 +6441,7 @@
       <c r="D74" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="63">
         <v>0.4114351851851849</v>
       </c>
       <c r="F74" s="34" t="s">
@@ -6474,7 +6481,7 @@
       <c r="R74" s="39">
         <v>1</v>
       </c>
-      <c r="S74" s="56">
+      <c r="S74" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6491,7 +6498,7 @@
       <c r="D75" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E75" s="63">
         <v>0.4136226851851848</v>
       </c>
       <c r="F75" s="34" t="s">
@@ -6531,7 +6538,7 @@
       <c r="R75" s="39">
         <v>1</v>
       </c>
-      <c r="S75" s="56">
+      <c r="S75" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6548,7 +6555,7 @@
       <c r="D76" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="63">
         <v>0.4093055555555552</v>
       </c>
       <c r="F76" s="34" t="s">
@@ -6588,7 +6595,7 @@
       <c r="R76" s="39">
         <v>1</v>
       </c>
-      <c r="S76" s="56">
+      <c r="S76" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6605,7 +6612,7 @@
       <c r="D77" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E77" s="63">
         <v>0.41840277777777751</v>
       </c>
       <c r="F77" s="34" t="s">
@@ -6645,7 +6652,7 @@
       <c r="R77" s="39">
         <v>1</v>
       </c>
-      <c r="S77" s="56">
+      <c r="S77" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6662,7 +6669,7 @@
       <c r="D78" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E78" s="54">
+      <c r="E78" s="63">
         <v>0.42120370370370336</v>
       </c>
       <c r="F78" s="34" t="s">
@@ -6702,7 +6709,7 @@
       <c r="R78" s="39">
         <v>1</v>
       </c>
-      <c r="S78" s="56">
+      <c r="S78" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6719,7 +6726,7 @@
       <c r="D79" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E79" s="54">
+      <c r="E79" s="63">
         <v>0.42342592592592559</v>
       </c>
       <c r="F79" s="34" t="s">
@@ -6759,7 +6766,7 @@
       <c r="R79" s="39">
         <v>1</v>
       </c>
-      <c r="S79" s="56">
+      <c r="S79" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6776,7 +6783,7 @@
       <c r="D80" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E80" s="54">
+      <c r="E80" s="63">
         <v>0.42619212962962921</v>
       </c>
       <c r="F80" s="34" t="s">
@@ -6816,7 +6823,7 @@
       <c r="R80" s="39">
         <v>1</v>
       </c>
-      <c r="S80" s="56">
+      <c r="S80" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6833,7 +6840,7 @@
       <c r="D81" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E81" s="54">
+      <c r="E81" s="63">
         <v>0.42849537037037005</v>
       </c>
       <c r="F81" s="34" t="s">
@@ -6873,7 +6880,7 @@
       <c r="R81" s="39">
         <v>1</v>
       </c>
-      <c r="S81" s="56">
+      <c r="S81" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6890,7 +6897,7 @@
       <c r="D82" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E82" s="54">
+      <c r="E82" s="63">
         <v>0.43129629629629601</v>
       </c>
       <c r="F82" s="34" t="s">
@@ -6930,7 +6937,7 @@
       <c r="R82" s="39">
         <v>1</v>
       </c>
-      <c r="S82" s="56">
+      <c r="S82" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6947,7 +6954,7 @@
       <c r="D83" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E83" s="54">
+      <c r="E83" s="63">
         <v>0.43344907407407379</v>
       </c>
       <c r="F83" s="34" t="s">
@@ -6987,7 +6994,7 @@
       <c r="R83" s="39">
         <v>1</v>
       </c>
-      <c r="S83" s="56">
+      <c r="S83" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7004,7 +7011,7 @@
       <c r="D84" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E84" s="54">
+      <c r="E84" s="63">
         <v>0.43646990740740704</v>
       </c>
       <c r="F84" s="34" t="s">
@@ -7044,7 +7051,7 @@
       <c r="R84" s="39">
         <v>1</v>
       </c>
-      <c r="S84" s="56">
+      <c r="S84" s="54">
         <v>5</v>
       </c>
     </row>
@@ -7061,7 +7068,7 @@
       <c r="D85" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E85" s="54">
+      <c r="E85" s="63">
         <v>0.44275462962962925</v>
       </c>
       <c r="F85" s="34" t="s">
@@ -7101,7 +7108,7 @@
       <c r="R85" s="39">
         <v>1</v>
       </c>
-      <c r="S85" s="56">
+      <c r="S85" s="54">
         <v>2</v>
       </c>
     </row>
@@ -7118,7 +7125,7 @@
       <c r="D86" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="54">
+      <c r="E86" s="63">
         <v>0.44570601851851815</v>
       </c>
       <c r="F86" s="34" t="s">
@@ -7158,7 +7165,7 @@
       <c r="R86" s="39">
         <v>1</v>
       </c>
-      <c r="S86" s="56">
+      <c r="S86" s="54">
         <v>2</v>
       </c>
     </row>
@@ -7175,7 +7182,7 @@
       <c r="D87" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E87" s="54">
+      <c r="E87" s="63">
         <v>0.44805555555555526</v>
       </c>
       <c r="F87" s="34" t="s">
@@ -7215,7 +7222,7 @@
       <c r="R87" s="39">
         <v>1</v>
       </c>
-      <c r="S87" s="56">
+      <c r="S87" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7232,7 +7239,7 @@
       <c r="D88" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E88" s="54">
+      <c r="E88" s="63">
         <v>0.45111111111111085</v>
       </c>
       <c r="F88" s="34" t="s">
@@ -7272,7 +7279,7 @@
       <c r="R88" s="39">
         <v>1</v>
       </c>
-      <c r="S88" s="56">
+      <c r="S88" s="54">
         <v>2</v>
       </c>
     </row>
@@ -7289,7 +7296,7 @@
       <c r="D89" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E89" s="54">
+      <c r="E89" s="63">
         <v>0.45324074074074033</v>
       </c>
       <c r="F89" s="34" t="s">
@@ -7329,7 +7336,7 @@
       <c r="R89" s="39">
         <v>1</v>
       </c>
-      <c r="S89" s="56">
+      <c r="S89" s="54">
         <v>2</v>
       </c>
     </row>
@@ -7346,7 +7353,7 @@
       <c r="D90" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E90" s="54">
+      <c r="E90" s="63">
         <v>0.46180555555555519</v>
       </c>
       <c r="F90" s="34" t="s">
@@ -7386,7 +7393,7 @@
       <c r="R90" s="39">
         <v>1</v>
       </c>
-      <c r="S90" s="56">
+      <c r="S90" s="54">
         <v>3</v>
       </c>
     </row>
@@ -7403,7 +7410,7 @@
       <c r="D91" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E91" s="54">
+      <c r="E91" s="63">
         <v>0.40502314814814783</v>
       </c>
       <c r="F91" s="34" t="s">
@@ -7443,7 +7450,7 @@
       <c r="R91" s="39">
         <v>1</v>
       </c>
-      <c r="S91" s="56">
+      <c r="S91" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7460,7 +7467,7 @@
       <c r="D92" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E92" s="54">
+      <c r="E92" s="63">
         <v>0.40813657407407372</v>
       </c>
       <c r="F92" s="34" t="s">
@@ -7500,7 +7507,7 @@
       <c r="R92" s="39">
         <v>1</v>
       </c>
-      <c r="S92" s="56">
+      <c r="S92" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7517,7 +7524,7 @@
       <c r="D93" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E93" s="54">
+      <c r="E93" s="63">
         <v>0.41069444444444408</v>
       </c>
       <c r="F93" s="34" t="s">
@@ -7557,7 +7564,7 @@
       <c r="R93" s="39">
         <v>1</v>
       </c>
-      <c r="S93" s="56">
+      <c r="S93" s="54">
         <v>2</v>
       </c>
     </row>
@@ -7574,7 +7581,7 @@
       <c r="D94" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E94" s="54">
+      <c r="E94" s="63">
         <v>0.4131597222222218</v>
       </c>
       <c r="F94" s="34" t="s">
@@ -7614,7 +7621,7 @@
       <c r="R94" s="39">
         <v>1</v>
       </c>
-      <c r="S94" s="56">
+      <c r="S94" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7631,7 +7638,7 @@
       <c r="D95" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E95" s="54">
+      <c r="E95" s="63">
         <v>0.41582175925925885</v>
       </c>
       <c r="F95" s="34" t="s">
@@ -7671,7 +7678,7 @@
       <c r="R95" s="39">
         <v>1</v>
       </c>
-      <c r="S95" s="56">
+      <c r="S95" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7688,7 +7695,7 @@
       <c r="D96" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E96" s="54">
+      <c r="E96" s="63">
         <v>0.41829861111111072</v>
       </c>
       <c r="F96" s="34" t="s">
@@ -7728,7 +7735,7 @@
       <c r="R96" s="39">
         <v>1</v>
       </c>
-      <c r="S96" s="56">
+      <c r="S96" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7745,7 +7752,7 @@
       <c r="D97" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E97" s="54">
+      <c r="E97" s="63">
         <v>0.42119212962962921</v>
       </c>
       <c r="F97" s="34" t="s">
@@ -7785,7 +7792,7 @@
       <c r="R97" s="39">
         <v>1</v>
       </c>
-      <c r="S97" s="56">
+      <c r="S97" s="54">
         <v>4</v>
       </c>
     </row>
@@ -7802,7 +7809,7 @@
       <c r="D98" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="63">
         <v>0.42377314814814776</v>
       </c>
       <c r="F98" s="34" t="s">
@@ -7842,7 +7849,7 @@
       <c r="R98" s="39">
         <v>1</v>
       </c>
-      <c r="S98" s="56">
+      <c r="S98" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7859,7 +7866,7 @@
       <c r="D99" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="54">
+      <c r="E99" s="63">
         <v>0.42660879629629594</v>
       </c>
       <c r="F99" s="34" t="s">
@@ -7899,7 +7906,7 @@
       <c r="R99" s="39">
         <v>1</v>
       </c>
-      <c r="S99" s="56">
+      <c r="S99" s="54">
         <v>4</v>
       </c>
     </row>
@@ -7916,7 +7923,7 @@
       <c r="D100" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E100" s="54">
+      <c r="E100" s="63">
         <v>0.42914351851851812</v>
       </c>
       <c r="F100" s="34" t="s">
@@ -7956,7 +7963,7 @@
       <c r="R100" s="39">
         <v>1</v>
       </c>
-      <c r="S100" s="56">
+      <c r="S100" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7973,7 +7980,7 @@
       <c r="D101" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E101" s="54">
+      <c r="E101" s="63">
         <v>0.43190972222222196</v>
       </c>
       <c r="F101" s="34" t="s">
@@ -8013,7 +8020,7 @@
       <c r="R101" s="39">
         <v>1</v>
       </c>
-      <c r="S101" s="56">
+      <c r="S101" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8030,7 +8037,7 @@
       <c r="D102" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="54">
+      <c r="E102" s="63">
         <v>0.43459490740740708</v>
       </c>
       <c r="F102" s="34" t="s">
@@ -8070,7 +8077,7 @@
       <c r="R102" s="39">
         <v>1</v>
       </c>
-      <c r="S102" s="56">
+      <c r="S102" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8087,7 +8094,7 @@
       <c r="D103" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E103" s="54">
+      <c r="E103" s="63">
         <v>0.4373611111111107</v>
       </c>
       <c r="F103" s="34" t="s">
@@ -8127,7 +8134,7 @@
       <c r="R103" s="39">
         <v>1</v>
       </c>
-      <c r="S103" s="56">
+      <c r="S103" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8144,7 +8151,7 @@
       <c r="D104" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E104" s="54">
+      <c r="E104" s="63">
         <v>0.43997685185185148</v>
       </c>
       <c r="F104" s="34" t="s">
@@ -8184,7 +8191,7 @@
       <c r="R104" s="39">
         <v>1</v>
       </c>
-      <c r="S104" s="56">
+      <c r="S104" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8201,7 +8208,7 @@
       <c r="D105" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E105" s="54">
+      <c r="E105" s="63">
         <v>0.44278935185185148</v>
       </c>
       <c r="F105" s="34" t="s">
@@ -8241,7 +8248,7 @@
       <c r="R105" s="39">
         <v>1</v>
       </c>
-      <c r="S105" s="56">
+      <c r="S105" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8258,7 +8265,7 @@
       <c r="D106" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E106" s="54">
+      <c r="E106" s="63">
         <v>0.44546296296296267</v>
       </c>
       <c r="F106" s="34" t="s">
@@ -8298,7 +8305,7 @@
       <c r="R106" s="39">
         <v>1</v>
       </c>
-      <c r="S106" s="56">
+      <c r="S106" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8315,7 +8322,7 @@
       <c r="D107" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E107" s="54">
+      <c r="E107" s="63">
         <v>0.44842592592592551</v>
       </c>
       <c r="F107" s="34" t="s">
@@ -8355,7 +8362,7 @@
       <c r="R107" s="39">
         <v>1</v>
       </c>
-      <c r="S107" s="56">
+      <c r="S107" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8372,7 +8379,7 @@
       <c r="D108" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E108" s="54">
+      <c r="E108" s="63">
         <v>0.45157407407407374</v>
       </c>
       <c r="F108" s="34" t="s">
@@ -8412,7 +8419,7 @@
       <c r="R108" s="39">
         <v>1</v>
       </c>
-      <c r="S108" s="56">
+      <c r="S108" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8429,7 +8436,7 @@
       <c r="D109" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E109" s="54">
+      <c r="E109" s="63">
         <v>0.45465277777777741</v>
       </c>
       <c r="F109" s="34" t="s">
@@ -8469,7 +8476,7 @@
       <c r="R109" s="39">
         <v>1</v>
       </c>
-      <c r="S109" s="56">
+      <c r="S109" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8486,7 +8493,7 @@
       <c r="D110" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E110" s="54">
+      <c r="E110" s="63">
         <v>0.45746527777777751</v>
       </c>
       <c r="F110" s="34" t="s">
@@ -8526,7 +8533,7 @@
       <c r="R110" s="39">
         <v>1</v>
       </c>
-      <c r="S110" s="56">
+      <c r="S110" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8543,7 +8550,7 @@
       <c r="D111" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E111" s="54">
+      <c r="E111" s="63">
         <v>0.45974537037037005</v>
       </c>
       <c r="F111" s="34" t="s">
@@ -8583,7 +8590,7 @@
       <c r="R111" s="39">
         <v>1</v>
       </c>
-      <c r="S111" s="56">
+      <c r="S111" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8600,7 +8607,7 @@
       <c r="D112" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E112" s="54">
+      <c r="E112" s="63">
         <v>0.46190972222222187</v>
       </c>
       <c r="F112" s="34" t="s">
@@ -8640,7 +8647,7 @@
       <c r="R112" s="39">
         <v>1</v>
       </c>
-      <c r="S112" s="56">
+      <c r="S112" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8657,7 +8664,7 @@
       <c r="D113" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E113" s="54">
+      <c r="E113" s="63">
         <v>0.46474537037037006</v>
       </c>
       <c r="F113" s="34" t="s">
@@ -8697,7 +8704,7 @@
       <c r="R113" s="39">
         <v>1</v>
       </c>
-      <c r="S113" s="56">
+      <c r="S113" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8714,7 +8721,7 @@
       <c r="D114" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E114" s="54">
+      <c r="E114" s="63">
         <v>0.46711805555555524</v>
       </c>
       <c r="F114" s="34" t="s">
@@ -8754,7 +8761,7 @@
       <c r="R114" s="39">
         <v>1</v>
       </c>
-      <c r="S114" s="56">
+      <c r="S114" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8771,7 +8778,7 @@
       <c r="D115" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E115" s="54">
+      <c r="E115" s="63">
         <v>0.47003472222222192</v>
       </c>
       <c r="F115" s="34" t="s">
@@ -8811,7 +8818,7 @@
       <c r="R115" s="39">
         <v>1</v>
       </c>
-      <c r="S115" s="56">
+      <c r="S115" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8828,7 +8835,7 @@
       <c r="D116" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E116" s="54">
+      <c r="E116" s="63">
         <v>0.47237268518518488</v>
       </c>
       <c r="F116" s="34" t="s">
@@ -8868,7 +8875,7 @@
       <c r="R116" s="39">
         <v>1</v>
       </c>
-      <c r="S116" s="56">
+      <c r="S116" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8885,7 +8892,7 @@
       <c r="D117" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E117" s="54">
+      <c r="E117" s="63">
         <v>0.47472222222222188</v>
       </c>
       <c r="F117" s="34" t="s">
@@ -8925,7 +8932,7 @@
       <c r="R117" s="39">
         <v>1</v>
       </c>
-      <c r="S117" s="56">
+      <c r="S117" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8942,7 +8949,7 @@
       <c r="D118" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E118" s="54">
+      <c r="E118" s="63">
         <v>0.47681712962962924</v>
       </c>
       <c r="F118" s="34" t="s">
@@ -8982,7 +8989,7 @@
       <c r="R118" s="39">
         <v>1</v>
       </c>
-      <c r="S118" s="56">
+      <c r="S118" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8999,7 +9006,7 @@
       <c r="D119" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E119" s="54">
+      <c r="E119" s="63">
         <v>0.4793171296296293</v>
       </c>
       <c r="F119" s="34" t="s">
@@ -9039,7 +9046,7 @@
       <c r="R119" s="39">
         <v>1</v>
       </c>
-      <c r="S119" s="56">
+      <c r="S119" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9056,7 +9063,7 @@
       <c r="D120" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E120" s="54">
+      <c r="E120" s="63">
         <v>0.48159722222222184</v>
       </c>
       <c r="F120" s="34" t="s">
@@ -9096,7 +9103,7 @@
       <c r="R120" s="39">
         <v>1</v>
       </c>
-      <c r="S120" s="56">
+      <c r="S120" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9113,7 +9120,7 @@
       <c r="D121" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E121" s="54">
+      <c r="E121" s="63">
         <v>0.48417824074074028</v>
       </c>
       <c r="F121" s="34" t="s">
@@ -9153,7 +9160,7 @@
       <c r="R121" s="39">
         <v>1</v>
       </c>
-      <c r="S121" s="56">
+      <c r="S121" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9170,7 +9177,7 @@
       <c r="D122" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E122" s="54">
+      <c r="E122" s="63">
         <v>0.48630787037036999</v>
       </c>
       <c r="F122" s="34" t="s">
@@ -9210,7 +9217,7 @@
       <c r="R122" s="39">
         <v>1</v>
       </c>
-      <c r="S122" s="56">
+      <c r="S122" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9227,7 +9234,7 @@
       <c r="D123" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E123" s="54">
+      <c r="E123" s="63">
         <v>0.488958333333333</v>
       </c>
       <c r="F123" s="34" t="s">
@@ -9267,7 +9274,7 @@
       <c r="R123" s="39">
         <v>1</v>
       </c>
-      <c r="S123" s="56">
+      <c r="S123" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9284,7 +9291,7 @@
       <c r="D124" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E124" s="54">
+      <c r="E124" s="63">
         <v>0.49107638888888855</v>
       </c>
       <c r="F124" s="34" t="s">
@@ -9324,7 +9331,7 @@
       <c r="R124" s="39">
         <v>1</v>
       </c>
-      <c r="S124" s="56">
+      <c r="S124" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9341,7 +9348,7 @@
       <c r="D125" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E125" s="54">
+      <c r="E125" s="63">
         <v>0.49366898148148103</v>
       </c>
       <c r="F125" s="34" t="s">
@@ -9381,7 +9388,7 @@
       <c r="R125" s="39">
         <v>1</v>
       </c>
-      <c r="S125" s="56">
+      <c r="S125" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9398,7 +9405,7 @@
       <c r="D126" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E126" s="54">
+      <c r="E126" s="63">
         <v>0.49607638888888855</v>
       </c>
       <c r="F126" s="34" t="s">
@@ -9438,7 +9445,7 @@
       <c r="R126" s="39">
         <v>1</v>
       </c>
-      <c r="S126" s="56">
+      <c r="S126" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9455,7 +9462,7 @@
       <c r="D127" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E127" s="54">
+      <c r="E127" s="63">
         <v>0.498958333333333</v>
       </c>
       <c r="F127" s="34" t="s">
@@ -9495,7 +9502,7 @@
       <c r="R127" s="39">
         <v>1</v>
       </c>
-      <c r="S127" s="56">
+      <c r="S127" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9512,7 +9519,7 @@
       <c r="D128" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E128" s="54">
+      <c r="E128" s="63">
         <v>0.50134259259259228</v>
       </c>
       <c r="F128" s="34" t="s">
@@ -9552,7 +9559,7 @@
       <c r="R128" s="39">
         <v>1</v>
       </c>
-      <c r="S128" s="56">
+      <c r="S128" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9569,7 +9576,7 @@
       <c r="D129" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E129" s="54">
+      <c r="E129" s="63">
         <v>0.50387731481481435</v>
       </c>
       <c r="F129" s="34" t="s">
@@ -9609,7 +9616,7 @@
       <c r="R129" s="39">
         <v>1</v>
       </c>
-      <c r="S129" s="56">
+      <c r="S129" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9626,7 +9633,7 @@
       <c r="D130" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E130" s="54">
+      <c r="E130" s="63">
         <v>0.50624999999999964</v>
       </c>
       <c r="F130" s="34" t="s">
@@ -9666,7 +9673,7 @@
       <c r="R130" s="39">
         <v>1</v>
       </c>
-      <c r="S130" s="56">
+      <c r="S130" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9683,7 +9690,7 @@
       <c r="D131" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E131" s="54">
+      <c r="E131" s="63">
         <v>0.50923611111111078</v>
       </c>
       <c r="F131" s="34" t="s">
@@ -9723,7 +9730,7 @@
       <c r="R131" s="39">
         <v>1</v>
       </c>
-      <c r="S131" s="56">
+      <c r="S131" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9740,7 +9747,7 @@
       <c r="D132" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E132" s="54">
+      <c r="E132" s="63">
         <v>0.51187499999999964</v>
       </c>
       <c r="F132" s="34" t="s">
@@ -9780,7 +9787,7 @@
       <c r="R132" s="39">
         <v>1</v>
       </c>
-      <c r="S132" s="56">
+      <c r="S132" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9797,7 +9804,7 @@
       <c r="D133" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E133" s="54">
+      <c r="E133" s="63">
         <v>0.51476851851851801</v>
       </c>
       <c r="F133" s="34" t="s">
@@ -9837,7 +9844,7 @@
       <c r="R133" s="39">
         <v>1</v>
       </c>
-      <c r="S133" s="56">
+      <c r="S133" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9854,7 +9861,7 @@
       <c r="D134" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E134" s="54">
+      <c r="E134" s="63">
         <v>0.51690972222222187</v>
       </c>
       <c r="F134" s="34" t="s">
@@ -9894,7 +9901,7 @@
       <c r="R134" s="39">
         <v>1</v>
       </c>
-      <c r="S134" s="56">
+      <c r="S134" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9911,7 +9918,7 @@
       <c r="D135" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E135" s="54">
+      <c r="E135" s="63">
         <v>0.51943287037037011</v>
       </c>
       <c r="F135" s="34" t="s">
@@ -9951,7 +9958,7 @@
       <c r="R135" s="39">
         <v>1</v>
       </c>
-      <c r="S135" s="56">
+      <c r="S135" s="54">
         <v>1</v>
       </c>
     </row>
@@ -9968,7 +9975,7 @@
       <c r="D136" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E136" s="54">
+      <c r="E136" s="63">
         <v>0.52175925925925881</v>
       </c>
       <c r="F136" s="34" t="s">
@@ -10008,7 +10015,7 @@
       <c r="R136" s="39">
         <v>1</v>
       </c>
-      <c r="S136" s="56">
+      <c r="S136" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10025,7 +10032,7 @@
       <c r="D137" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E137" s="54">
+      <c r="E137" s="63">
         <v>0.52437499999999959</v>
       </c>
       <c r="F137" s="34" t="s">
@@ -10065,7 +10072,7 @@
       <c r="R137" s="39">
         <v>1</v>
       </c>
-      <c r="S137" s="56">
+      <c r="S137" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10082,7 +10089,7 @@
       <c r="D138" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E138" s="54">
+      <c r="E138" s="63">
         <v>0.52666666666666639</v>
       </c>
       <c r="F138" s="34" t="s">
@@ -10122,7 +10129,7 @@
       <c r="R138" s="39">
         <v>1</v>
       </c>
-      <c r="S138" s="56">
+      <c r="S138" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10139,7 +10146,7 @@
       <c r="D139" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="54">
+      <c r="E139" s="63">
         <v>0.52909722222222189</v>
       </c>
       <c r="F139" s="34" t="s">
@@ -10179,7 +10186,7 @@
       <c r="R139" s="39">
         <v>1</v>
       </c>
-      <c r="S139" s="56">
+      <c r="S139" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10196,7 +10203,7 @@
       <c r="D140" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E140" s="54">
+      <c r="E140" s="63">
         <v>0.53152777777777738</v>
       </c>
       <c r="F140" s="34" t="s">
@@ -10236,7 +10243,7 @@
       <c r="R140" s="39">
         <v>1</v>
       </c>
-      <c r="S140" s="56">
+      <c r="S140" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10253,7 +10260,7 @@
       <c r="D141" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E141" s="54">
+      <c r="E141" s="63">
         <v>0.53393518518518479</v>
       </c>
       <c r="F141" s="34" t="s">
@@ -10293,7 +10300,7 @@
       <c r="R141" s="39">
         <v>1</v>
       </c>
-      <c r="S141" s="56">
+      <c r="S141" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10310,7 +10317,7 @@
       <c r="D142" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E142" s="54">
+      <c r="E142" s="63">
         <v>0.5363425925925922</v>
       </c>
       <c r="F142" s="34" t="s">
@@ -10350,7 +10357,7 @@
       <c r="R142" s="39">
         <v>1</v>
       </c>
-      <c r="S142" s="56">
+      <c r="S142" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10367,7 +10374,7 @@
       <c r="D143" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E143" s="54">
+      <c r="E143" s="63">
         <v>0.53880787037037003</v>
       </c>
       <c r="F143" s="34" t="s">
@@ -10407,7 +10414,7 @@
       <c r="R143" s="39">
         <v>1</v>
       </c>
-      <c r="S143" s="56">
+      <c r="S143" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10424,7 +10431,7 @@
       <c r="D144" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E144" s="54">
+      <c r="E144" s="63">
         <v>0.54119212962962937</v>
       </c>
       <c r="F144" s="34" t="s">
@@ -10464,7 +10471,7 @@
       <c r="R144" s="39">
         <v>1</v>
       </c>
-      <c r="S144" s="56">
+      <c r="S144" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10481,7 +10488,7 @@
       <c r="D145" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E145" s="54">
+      <c r="E145" s="63">
         <v>0.54402777777777755</v>
       </c>
       <c r="F145" s="34" t="s">
@@ -10521,7 +10528,7 @@
       <c r="R145" s="39">
         <v>1</v>
       </c>
-      <c r="S145" s="56">
+      <c r="S145" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10538,7 +10545,7 @@
       <c r="D146" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E146" s="54">
+      <c r="E146" s="63">
         <v>0.54627314814814776</v>
       </c>
       <c r="F146" s="34" t="s">
@@ -10578,7 +10585,7 @@
       <c r="R146" s="39">
         <v>1</v>
       </c>
-      <c r="S146" s="56">
+      <c r="S146" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10595,7 +10602,7 @@
       <c r="D147" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E147" s="54">
+      <c r="E147" s="63">
         <v>0.5488773148148145</v>
       </c>
       <c r="F147" s="34" t="s">
@@ -10635,7 +10642,7 @@
       <c r="R147" s="39">
         <v>1</v>
       </c>
-      <c r="S147" s="56">
+      <c r="S147" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10652,7 +10659,7 @@
       <c r="D148" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E148" s="54">
+      <c r="E148" s="63">
         <v>0.551145833333333</v>
       </c>
       <c r="F148" s="34" t="s">
@@ -10692,7 +10699,7 @@
       <c r="R148" s="39">
         <v>1</v>
       </c>
-      <c r="S148" s="56">
+      <c r="S148" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10709,7 +10716,7 @@
       <c r="D149" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E149" s="54">
+      <c r="E149" s="63">
         <v>0.5537962962962959</v>
       </c>
       <c r="F149" s="34" t="s">
@@ -10749,7 +10756,7 @@
       <c r="R149" s="39">
         <v>1</v>
       </c>
-      <c r="S149" s="56">
+      <c r="S149" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10766,7 +10773,7 @@
       <c r="D150" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E150" s="54">
+      <c r="E150" s="63">
         <v>0.55622685185185139</v>
       </c>
       <c r="F150" s="34" t="s">
@@ -10806,7 +10813,7 @@
       <c r="R150" s="39">
         <v>1</v>
       </c>
-      <c r="S150" s="56">
+      <c r="S150" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10823,7 +10830,7 @@
       <c r="D151" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E151" s="54">
+      <c r="E151" s="63">
         <v>0.55893518518518492</v>
       </c>
       <c r="F151" s="34" t="s">
@@ -10863,7 +10870,7 @@
       <c r="R151" s="39">
         <v>1</v>
       </c>
-      <c r="S151" s="56">
+      <c r="S151" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10880,7 +10887,7 @@
       <c r="D152" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E152" s="54">
+      <c r="E152" s="63">
         <v>0.56115740740740705</v>
       </c>
       <c r="F152" s="34" t="s">
@@ -10920,7 +10927,7 @@
       <c r="R152" s="39">
         <v>1</v>
       </c>
-      <c r="S152" s="56">
+      <c r="S152" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10937,7 +10944,7 @@
       <c r="D153" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E153" s="54">
+      <c r="E153" s="63">
         <v>0.56372685185185145</v>
       </c>
       <c r="F153" s="34" t="s">
@@ -10977,7 +10984,7 @@
       <c r="R153" s="39">
         <v>1</v>
       </c>
-      <c r="S153" s="56">
+      <c r="S153" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10994,7 +11001,7 @@
       <c r="D154" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E154" s="54">
+      <c r="E154" s="63">
         <v>0.51606481481481481</v>
       </c>
       <c r="F154" s="34" t="s">
@@ -11034,7 +11041,7 @@
       <c r="R154" s="39">
         <v>1</v>
       </c>
-      <c r="S154" s="56">
+      <c r="S154" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11051,7 +11058,7 @@
       <c r="D155" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E155" s="54">
+      <c r="E155" s="63">
         <v>0.51898148148148149</v>
       </c>
       <c r="F155" s="34" t="s">
@@ -11091,7 +11098,7 @@
       <c r="R155" s="39">
         <v>1</v>
       </c>
-      <c r="S155" s="56">
+      <c r="S155" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11108,7 +11115,7 @@
       <c r="D156" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E156" s="54">
+      <c r="E156" s="63">
         <v>0.52190972222222221</v>
       </c>
       <c r="F156" s="34" t="s">
@@ -11148,7 +11155,7 @@
       <c r="R156" s="39">
         <v>1</v>
       </c>
-      <c r="S156" s="56">
+      <c r="S156" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11165,7 +11172,7 @@
       <c r="D157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E157" s="54">
+      <c r="E157" s="63">
         <v>0.52466435185185145</v>
       </c>
       <c r="F157" s="34" t="s">
@@ -11205,7 +11212,7 @@
       <c r="R157" s="39">
         <v>1</v>
       </c>
-      <c r="S157" s="56">
+      <c r="S157" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11222,7 +11229,7 @@
       <c r="D158" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E158" s="54">
+      <c r="E158" s="63">
         <v>0.52765046296296259</v>
       </c>
       <c r="F158" s="34" t="s">
@@ -11262,7 +11269,7 @@
       <c r="R158" s="39">
         <v>1</v>
       </c>
-      <c r="S158" s="56">
+      <c r="S158" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11279,7 +11286,7 @@
       <c r="D159" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E159" s="54">
+      <c r="E159" s="63">
         <v>0.5303587962962959</v>
       </c>
       <c r="F159" s="34" t="s">
@@ -11319,7 +11326,7 @@
       <c r="R159" s="39">
         <v>1</v>
       </c>
-      <c r="S159" s="56">
+      <c r="S159" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11336,7 +11343,7 @@
       <c r="D160" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E160" s="54">
+      <c r="E160" s="63">
         <v>0.53349537037036998</v>
       </c>
       <c r="F160" s="34" t="s">
@@ -11376,7 +11383,7 @@
       <c r="R160" s="39">
         <v>1</v>
       </c>
-      <c r="S160" s="56">
+      <c r="S160" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11393,7 +11400,7 @@
       <c r="D161" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E161" s="54">
+      <c r="E161" s="63">
         <v>0.53645833333333304</v>
       </c>
       <c r="F161" s="34" t="s">
@@ -11433,7 +11440,7 @@
       <c r="R161" s="39">
         <v>1</v>
       </c>
-      <c r="S161" s="56">
+      <c r="S161" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11450,7 +11457,7 @@
       <c r="D162" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E162" s="54">
+      <c r="E162" s="63">
         <v>0.53968749999999965</v>
       </c>
       <c r="F162" s="34" t="s">
@@ -11490,7 +11497,7 @@
       <c r="R162" s="39">
         <v>1</v>
       </c>
-      <c r="S162" s="56">
+      <c r="S162" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11507,7 +11514,7 @@
       <c r="D163" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E163" s="54">
+      <c r="E163" s="63">
         <v>0.54255787037036995</v>
       </c>
       <c r="F163" s="34" t="s">
@@ -11547,7 +11554,7 @@
       <c r="R163" s="39">
         <v>1</v>
       </c>
-      <c r="S163" s="56">
+      <c r="S163" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11564,7 +11571,7 @@
       <c r="D164" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E164" s="54">
+      <c r="E164" s="63">
         <v>0.54565972222222192</v>
       </c>
       <c r="F164" s="34" t="s">
@@ -11604,7 +11611,7 @@
       <c r="R164" s="39">
         <v>1</v>
       </c>
-      <c r="S164" s="56">
+      <c r="S164" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11621,7 +11628,7 @@
       <c r="D165" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E165" s="54">
+      <c r="E165" s="63">
         <v>0.54811342592592549</v>
       </c>
       <c r="F165" s="34" t="s">
@@ -11661,7 +11668,7 @@
       <c r="R165" s="39">
         <v>1</v>
       </c>
-      <c r="S165" s="56">
+      <c r="S165" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11678,7 +11685,7 @@
       <c r="D166" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E166" s="54">
+      <c r="E166" s="63">
         <v>0.55136574074074041</v>
       </c>
       <c r="F166" s="34" t="s">
@@ -11718,7 +11725,7 @@
       <c r="R166" s="39">
         <v>1</v>
       </c>
-      <c r="S166" s="56">
+      <c r="S166" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11735,7 +11742,7 @@
       <c r="D167" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E167" s="54">
+      <c r="E167" s="63">
         <v>0.5543171296296292</v>
       </c>
       <c r="F167" s="34" t="s">
@@ -11775,7 +11782,7 @@
       <c r="R167" s="39">
         <v>1</v>
       </c>
-      <c r="S167" s="56">
+      <c r="S167" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11792,7 +11799,7 @@
       <c r="D168" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E168" s="54">
+      <c r="E168" s="63">
         <v>0.55725694444444418</v>
       </c>
       <c r="F168" s="34" t="s">
@@ -11832,7 +11839,7 @@
       <c r="R168" s="39">
         <v>1</v>
       </c>
-      <c r="S168" s="56">
+      <c r="S168" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11849,7 +11856,7 @@
       <c r="D169" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E169" s="54">
+      <c r="E169" s="63">
         <v>0.55994212962962919</v>
       </c>
       <c r="F169" s="34" t="s">
@@ -11889,7 +11896,7 @@
       <c r="R169" s="39">
         <v>1</v>
       </c>
-      <c r="S169" s="56">
+      <c r="S169" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11906,7 +11913,7 @@
       <c r="D170" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E170" s="54">
+      <c r="E170" s="63">
         <v>0.56322916666666623</v>
       </c>
       <c r="F170" s="34" t="s">
@@ -11946,7 +11953,7 @@
       <c r="R170" s="39">
         <v>1</v>
       </c>
-      <c r="S170" s="56">
+      <c r="S170" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11963,7 +11970,7 @@
       <c r="D171" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E171" s="54">
+      <c r="E171" s="63">
         <v>0.56636574074074031</v>
       </c>
       <c r="F171" s="34" t="s">
@@ -12003,7 +12010,7 @@
       <c r="R171" s="39">
         <v>1</v>
       </c>
-      <c r="S171" s="56">
+      <c r="S171" s="54">
         <v>2</v>
       </c>
     </row>
@@ -12020,7 +12027,7 @@
       <c r="D172" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E172" s="54">
+      <c r="E172" s="63">
         <v>0.56989583333333282</v>
       </c>
       <c r="F172" s="34" t="s">
@@ -12060,7 +12067,7 @@
       <c r="R172" s="39">
         <v>1</v>
       </c>
-      <c r="S172" s="56">
+      <c r="S172" s="54">
         <v>2</v>
       </c>
     </row>
@@ -12077,7 +12084,7 @@
       <c r="D173" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E173" s="54">
+      <c r="E173" s="63">
         <v>0.5728124999999995</v>
       </c>
       <c r="F173" s="34" t="s">
@@ -12117,7 +12124,7 @@
       <c r="R173" s="39">
         <v>1</v>
       </c>
-      <c r="S173" s="56">
+      <c r="S173" s="54">
         <v>5</v>
       </c>
     </row>
@@ -12134,7 +12141,7 @@
       <c r="D174" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E174" s="54">
+      <c r="E174" s="63">
         <v>0.57598379629629592</v>
       </c>
       <c r="F174" s="34" t="s">
@@ -12174,7 +12181,7 @@
       <c r="R174" s="39">
         <v>1</v>
       </c>
-      <c r="S174" s="56">
+      <c r="S174" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12191,7 +12198,7 @@
       <c r="D175" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E175" s="54">
+      <c r="E175" s="63">
         <v>0.57887731481481453</v>
       </c>
       <c r="F175" s="34" t="s">
@@ -12231,7 +12238,7 @@
       <c r="R175" s="39">
         <v>1</v>
       </c>
-      <c r="S175" s="56">
+      <c r="S175" s="54">
         <v>2</v>
       </c>
     </row>
@@ -12248,7 +12255,7 @@
       <c r="D176" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E176" s="54">
+      <c r="E176" s="63">
         <v>0.58174768518518483</v>
       </c>
       <c r="F176" s="34" t="s">
@@ -12288,7 +12295,7 @@
       <c r="R176" s="39">
         <v>1</v>
       </c>
-      <c r="S176" s="56">
+      <c r="S176" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12305,7 +12312,7 @@
       <c r="D177" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E177" s="54">
+      <c r="E177" s="63">
         <v>0.58482638888888849</v>
       </c>
       <c r="F177" s="34" t="s">
@@ -12345,7 +12352,7 @@
       <c r="R177" s="39">
         <v>1</v>
       </c>
-      <c r="S177" s="56">
+      <c r="S177" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12362,7 +12369,7 @@
       <c r="D178" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E178" s="54">
+      <c r="E178" s="63">
         <v>0.58812499999999956</v>
       </c>
       <c r="F178" s="34" t="s">
@@ -12402,7 +12409,7 @@
       <c r="R178" s="39">
         <v>1</v>
       </c>
-      <c r="S178" s="56">
+      <c r="S178" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12419,7 +12426,7 @@
       <c r="D179" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E179" s="54">
+      <c r="E179" s="63">
         <v>0.59077546296296246</v>
       </c>
       <c r="F179" s="34" t="s">
@@ -12459,7 +12466,7 @@
       <c r="R179" s="39">
         <v>1</v>
       </c>
-      <c r="S179" s="56">
+      <c r="S179" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12476,7 +12483,7 @@
       <c r="D180" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E180" s="54">
+      <c r="E180" s="63">
         <v>0.59407407407407375</v>
       </c>
       <c r="F180" s="34" t="s">
@@ -12516,7 +12523,7 @@
       <c r="R180" s="39">
         <v>1</v>
       </c>
-      <c r="S180" s="56">
+      <c r="S180" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12533,7 +12540,7 @@
       <c r="D181" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E181" s="54">
+      <c r="E181" s="63">
         <v>0.59671296296296261</v>
       </c>
       <c r="F181" s="34" t="s">
@@ -12573,7 +12580,7 @@
       <c r="R181" s="39">
         <v>1</v>
       </c>
-      <c r="S181" s="56">
+      <c r="S181" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12590,7 +12597,7 @@
       <c r="D182" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E182" s="54">
+      <c r="E182" s="63">
         <v>0.59981481481481458</v>
       </c>
       <c r="F182" s="34" t="s">
@@ -12630,7 +12637,7 @@
       <c r="R182" s="39">
         <v>1</v>
       </c>
-      <c r="S182" s="56">
+      <c r="S182" s="54">
         <v>2</v>
       </c>
     </row>
@@ -12647,7 +12654,7 @@
       <c r="D183" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E183" s="54">
+      <c r="E183" s="63">
         <v>0.60262731481481446</v>
       </c>
       <c r="F183" s="34" t="s">
@@ -12687,7 +12694,7 @@
       <c r="R183" s="39">
         <v>1</v>
       </c>
-      <c r="S183" s="56">
+      <c r="S183" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12704,7 +12711,7 @@
       <c r="D184" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E184" s="54">
+      <c r="E184" s="63">
         <v>0.6056134259259256</v>
       </c>
       <c r="F184" s="34" t="s">
@@ -12744,7 +12751,7 @@
       <c r="R184" s="39">
         <v>1</v>
       </c>
-      <c r="S184" s="56">
+      <c r="S184" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12761,7 +12768,7 @@
       <c r="D185" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E185" s="54">
+      <c r="E185" s="63">
         <v>0.60837962962962933</v>
       </c>
       <c r="F185" s="34" t="s">
@@ -12801,7 +12808,7 @@
       <c r="R185" s="39">
         <v>1</v>
       </c>
-      <c r="S185" s="56">
+      <c r="S185" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12818,7 +12825,7 @@
       <c r="D186" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E186" s="54">
+      <c r="E186" s="63">
         <v>0.61156249999999956</v>
       </c>
       <c r="F186" s="34" t="s">
@@ -12858,7 +12865,7 @@
       <c r="R186" s="39">
         <v>1</v>
       </c>
-      <c r="S186" s="56">
+      <c r="S186" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12875,7 +12882,7 @@
       <c r="D187" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E187" s="54">
+      <c r="E187" s="63">
         <v>0.61418981481481438</v>
       </c>
       <c r="F187" s="34" t="s">
@@ -12915,7 +12922,7 @@
       <c r="R187" s="39">
         <v>1</v>
       </c>
-      <c r="S187" s="56">
+      <c r="S187" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12932,7 +12939,7 @@
       <c r="D188" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E188" s="54">
+      <c r="E188" s="63">
         <v>0.61728009259259231</v>
       </c>
       <c r="F188" s="34" t="s">
@@ -12972,7 +12979,7 @@
       <c r="R188" s="39">
         <v>1</v>
       </c>
-      <c r="S188" s="56">
+      <c r="S188" s="54">
         <v>1</v>
       </c>
     </row>
@@ -12989,7 +12996,7 @@
       <c r="D189" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E189" s="54">
+      <c r="E189" s="63">
         <v>0.61997685185185158</v>
       </c>
       <c r="F189" s="34" t="s">
@@ -13029,7 +13036,7 @@
       <c r="R189" s="39">
         <v>1</v>
       </c>
-      <c r="S189" s="56">
+      <c r="S189" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13046,7 +13053,7 @@
       <c r="D190" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E190" s="54">
+      <c r="E190" s="63">
         <v>0.62311342592592567</v>
       </c>
       <c r="F190" s="34" t="s">
@@ -13086,7 +13093,7 @@
       <c r="R190" s="39">
         <v>1</v>
       </c>
-      <c r="S190" s="56">
+      <c r="S190" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13103,7 +13110,7 @@
       <c r="D191" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E191" s="54">
+      <c r="E191" s="63">
         <v>0.62601851851851809</v>
       </c>
       <c r="F191" s="34" t="s">
@@ -13143,7 +13150,7 @@
       <c r="R191" s="39">
         <v>1</v>
       </c>
-      <c r="S191" s="56">
+      <c r="S191" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13160,7 +13167,7 @@
       <c r="D192" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E192" s="54">
+      <c r="E192" s="63">
         <v>0.62902777777777752</v>
       </c>
       <c r="F192" s="34" t="s">
@@ -13200,7 +13207,7 @@
       <c r="R192" s="39">
         <v>1</v>
       </c>
-      <c r="S192" s="56">
+      <c r="S192" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13217,7 +13224,7 @@
       <c r="D193" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E193" s="55">
+      <c r="E193" s="64">
         <v>0.63166666666666638</v>
       </c>
       <c r="F193" s="34" t="s">
@@ -13257,7 +13264,7 @@
       <c r="R193" s="39">
         <v>1</v>
       </c>
-      <c r="S193" s="56">
+      <c r="S193" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13266,7 +13273,7 @@
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
-      <c r="E194"/>
+      <c r="E194" s="65"/>
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
@@ -13287,7 +13294,7 @@
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
-      <c r="E195"/>
+      <c r="E195" s="65"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
@@ -13308,7 +13315,7 @@
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
-      <c r="E196"/>
+      <c r="E196" s="65"/>
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196"/>
@@ -13329,7 +13336,7 @@
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
-      <c r="E197"/>
+      <c r="E197" s="65"/>
       <c r="F197"/>
       <c r="G197"/>
       <c r="H197"/>
@@ -13350,7 +13357,7 @@
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
-      <c r="E198"/>
+      <c r="E198" s="65"/>
       <c r="F198"/>
       <c r="G198"/>
       <c r="H198"/>
@@ -13371,7 +13378,7 @@
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
-      <c r="E199"/>
+      <c r="E199" s="65"/>
       <c r="F199"/>
       <c r="G199"/>
       <c r="H199"/>
@@ -13392,7 +13399,7 @@
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
-      <c r="E200"/>
+      <c r="E200" s="65"/>
       <c r="F200"/>
       <c r="G200"/>
       <c r="H200"/>
@@ -13413,7 +13420,7 @@
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
-      <c r="E201"/>
+      <c r="E201" s="65"/>
       <c r="F201"/>
       <c r="G201"/>
       <c r="H201"/>
@@ -13434,7 +13441,7 @@
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
-      <c r="E202"/>
+      <c r="E202" s="65"/>
       <c r="F202"/>
       <c r="G202"/>
       <c r="H202"/>
@@ -13455,7 +13462,7 @@
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
-      <c r="E203"/>
+      <c r="E203" s="65"/>
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203"/>
@@ -13476,7 +13483,7 @@
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
-      <c r="E204"/>
+      <c r="E204" s="65"/>
       <c r="F204"/>
       <c r="G204"/>
       <c r="H204"/>
@@ -13497,7 +13504,7 @@
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
-      <c r="E205"/>
+      <c r="E205" s="65"/>
       <c r="F205"/>
       <c r="G205"/>
       <c r="H205"/>
@@ -13518,7 +13525,7 @@
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
-      <c r="E206"/>
+      <c r="E206" s="65"/>
       <c r="F206"/>
       <c r="G206"/>
       <c r="H206"/>
@@ -13539,7 +13546,7 @@
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
-      <c r="E207"/>
+      <c r="E207" s="65"/>
       <c r="F207"/>
       <c r="G207"/>
       <c r="H207"/>
@@ -13560,7 +13567,7 @@
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
-      <c r="E208"/>
+      <c r="E208" s="65"/>
       <c r="F208"/>
       <c r="G208"/>
       <c r="H208"/>
@@ -13581,7 +13588,7 @@
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
-      <c r="E209"/>
+      <c r="E209" s="65"/>
       <c r="F209"/>
       <c r="G209"/>
       <c r="H209"/>
@@ -13602,7 +13609,7 @@
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
-      <c r="E210"/>
+      <c r="E210" s="65"/>
       <c r="F210"/>
       <c r="G210"/>
       <c r="H210"/>
@@ -13623,7 +13630,7 @@
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
-      <c r="E211"/>
+      <c r="E211" s="65"/>
       <c r="F211"/>
       <c r="G211"/>
       <c r="H211"/>
@@ -13644,7 +13651,7 @@
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
-      <c r="E212"/>
+      <c r="E212" s="65"/>
       <c r="F212"/>
       <c r="G212"/>
       <c r="H212"/>
@@ -13665,7 +13672,7 @@
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
-      <c r="E213"/>
+      <c r="E213" s="65"/>
       <c r="F213"/>
       <c r="G213"/>
       <c r="H213"/>
@@ -13686,7 +13693,7 @@
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
-      <c r="E214"/>
+      <c r="E214" s="65"/>
       <c r="F214"/>
       <c r="G214"/>
       <c r="H214"/>
@@ -13707,7 +13714,7 @@
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
-      <c r="E215"/>
+      <c r="E215" s="65"/>
       <c r="F215"/>
       <c r="G215"/>
       <c r="H215"/>
@@ -13728,7 +13735,7 @@
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
-      <c r="E216"/>
+      <c r="E216" s="65"/>
       <c r="F216"/>
       <c r="G216"/>
       <c r="H216"/>
@@ -13749,7 +13756,7 @@
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
-      <c r="E217"/>
+      <c r="E217" s="65"/>
       <c r="F217"/>
       <c r="G217"/>
       <c r="H217"/>
@@ -13770,7 +13777,7 @@
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
-      <c r="E218"/>
+      <c r="E218" s="65"/>
       <c r="F218"/>
       <c r="G218"/>
       <c r="H218"/>
@@ -13791,7 +13798,7 @@
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
-      <c r="E219"/>
+      <c r="E219" s="65"/>
       <c r="F219"/>
       <c r="G219"/>
       <c r="H219"/>
@@ -13812,7 +13819,7 @@
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
-      <c r="E220"/>
+      <c r="E220" s="65"/>
       <c r="F220"/>
       <c r="G220"/>
       <c r="H220"/>
@@ -13833,7 +13840,7 @@
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
-      <c r="E221"/>
+      <c r="E221" s="65"/>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221"/>
@@ -13854,7 +13861,7 @@
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
-      <c r="E222"/>
+      <c r="E222" s="65"/>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222"/>
@@ -13875,7 +13882,7 @@
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
-      <c r="E223"/>
+      <c r="E223" s="65"/>
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223"/>
@@ -13896,7 +13903,7 @@
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
-      <c r="E224"/>
+      <c r="E224" s="65"/>
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224"/>
@@ -13917,7 +13924,7 @@
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
-      <c r="E225"/>
+      <c r="E225" s="65"/>
       <c r="F225"/>
       <c r="G225"/>
       <c r="H225"/>
@@ -13938,7 +13945,7 @@
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
-      <c r="E226"/>
+      <c r="E226" s="65"/>
       <c r="F226"/>
       <c r="G226"/>
       <c r="H226"/>
@@ -13959,7 +13966,7 @@
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
-      <c r="E227"/>
+      <c r="E227" s="65"/>
       <c r="F227"/>
       <c r="G227"/>
       <c r="H227"/>
@@ -13980,7 +13987,7 @@
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
-      <c r="E228"/>
+      <c r="E228" s="65"/>
       <c r="F228"/>
       <c r="G228"/>
       <c r="H228"/>
@@ -14001,7 +14008,7 @@
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
-      <c r="E229"/>
+      <c r="E229" s="65"/>
       <c r="F229"/>
       <c r="G229"/>
       <c r="H229"/>
@@ -14022,7 +14029,7 @@
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
-      <c r="E230"/>
+      <c r="E230" s="65"/>
       <c r="F230"/>
       <c r="G230"/>
       <c r="H230"/>
@@ -14043,7 +14050,7 @@
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
-      <c r="E231"/>
+      <c r="E231" s="65"/>
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231"/>
@@ -14064,7 +14071,7 @@
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
-      <c r="E232"/>
+      <c r="E232" s="65"/>
       <c r="F232"/>
       <c r="G232"/>
       <c r="H232"/>
@@ -14085,7 +14092,7 @@
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
-      <c r="E233"/>
+      <c r="E233" s="65"/>
       <c r="F233"/>
       <c r="G233"/>
       <c r="H233"/>
@@ -14106,7 +14113,7 @@
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
-      <c r="E234"/>
+      <c r="E234" s="65"/>
       <c r="F234"/>
       <c r="G234"/>
       <c r="H234"/>
@@ -14127,7 +14134,7 @@
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
-      <c r="E235"/>
+      <c r="E235" s="65"/>
       <c r="F235"/>
       <c r="G235"/>
       <c r="H235"/>
@@ -14148,7 +14155,7 @@
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
-      <c r="E236"/>
+      <c r="E236" s="65"/>
       <c r="F236"/>
       <c r="G236"/>
       <c r="H236"/>
@@ -14169,7 +14176,7 @@
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
-      <c r="E237"/>
+      <c r="E237" s="65"/>
       <c r="F237"/>
       <c r="G237"/>
       <c r="H237"/>
@@ -14190,7 +14197,7 @@
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
-      <c r="E238"/>
+      <c r="E238" s="65"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
@@ -14211,7 +14218,7 @@
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
-      <c r="E239"/>
+      <c r="E239" s="65"/>
       <c r="F239"/>
       <c r="G239"/>
       <c r="H239"/>
@@ -14232,7 +14239,7 @@
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
-      <c r="E240"/>
+      <c r="E240" s="65"/>
       <c r="F240"/>
       <c r="G240"/>
       <c r="H240"/>
@@ -14253,7 +14260,7 @@
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
-      <c r="E241"/>
+      <c r="E241" s="65"/>
       <c r="F241"/>
       <c r="G241"/>
       <c r="H241"/>
@@ -14274,7 +14281,7 @@
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
-      <c r="E242"/>
+      <c r="E242" s="65"/>
       <c r="F242"/>
       <c r="G242"/>
       <c r="H242"/>
@@ -14295,7 +14302,7 @@
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
-      <c r="E243"/>
+      <c r="E243" s="65"/>
       <c r="F243"/>
       <c r="G243"/>
       <c r="H243"/>
@@ -14316,7 +14323,7 @@
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
-      <c r="E244"/>
+      <c r="E244" s="65"/>
       <c r="F244"/>
       <c r="G244"/>
       <c r="H244"/>
@@ -14337,7 +14344,7 @@
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
-      <c r="E245"/>
+      <c r="E245" s="65"/>
       <c r="F245"/>
       <c r="G245"/>
       <c r="H245"/>
@@ -14358,7 +14365,7 @@
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
-      <c r="E246"/>
+      <c r="E246" s="65"/>
       <c r="F246"/>
       <c r="G246"/>
       <c r="H246"/>
@@ -14379,7 +14386,7 @@
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
-      <c r="E247"/>
+      <c r="E247" s="65"/>
       <c r="F247"/>
       <c r="G247"/>
       <c r="H247"/>
@@ -14400,7 +14407,7 @@
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
-      <c r="E248"/>
+      <c r="E248" s="65"/>
       <c r="F248"/>
       <c r="G248"/>
       <c r="H248"/>
@@ -14421,7 +14428,7 @@
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
-      <c r="E249"/>
+      <c r="E249" s="65"/>
       <c r="F249"/>
       <c r="G249"/>
       <c r="H249"/>
@@ -14442,7 +14449,7 @@
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
-      <c r="E250"/>
+      <c r="E250" s="65"/>
       <c r="F250"/>
       <c r="G250"/>
       <c r="H250"/>
@@ -14463,7 +14470,7 @@
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
-      <c r="E251"/>
+      <c r="E251" s="65"/>
       <c r="F251"/>
       <c r="G251"/>
       <c r="H251"/>
@@ -14484,7 +14491,7 @@
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
-      <c r="E252"/>
+      <c r="E252" s="65"/>
       <c r="F252"/>
       <c r="G252"/>
       <c r="H252"/>
@@ -14505,7 +14512,7 @@
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
-      <c r="E253"/>
+      <c r="E253" s="65"/>
       <c r="F253"/>
       <c r="G253"/>
       <c r="H253"/>
@@ -14526,7 +14533,7 @@
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
-      <c r="E254"/>
+      <c r="E254" s="65"/>
       <c r="F254"/>
       <c r="G254"/>
       <c r="H254"/>
@@ -14547,7 +14554,7 @@
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
-      <c r="E255"/>
+      <c r="E255" s="65"/>
       <c r="F255"/>
       <c r="G255"/>
       <c r="H255"/>
@@ -14568,7 +14575,7 @@
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
-      <c r="E256"/>
+      <c r="E256" s="65"/>
       <c r="F256"/>
       <c r="G256"/>
       <c r="H256"/>
@@ -14589,7 +14596,7 @@
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
-      <c r="E257"/>
+      <c r="E257" s="65"/>
       <c r="F257"/>
       <c r="G257"/>
       <c r="H257"/>
@@ -14610,7 +14617,7 @@
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
-      <c r="E258"/>
+      <c r="E258" s="65"/>
       <c r="F258"/>
       <c r="G258"/>
       <c r="H258"/>
@@ -14631,7 +14638,7 @@
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
-      <c r="E259"/>
+      <c r="E259" s="65"/>
       <c r="F259"/>
       <c r="G259"/>
       <c r="H259"/>
@@ -14652,7 +14659,7 @@
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
-      <c r="E260"/>
+      <c r="E260" s="65"/>
       <c r="F260"/>
       <c r="G260"/>
       <c r="H260"/>
@@ -14673,7 +14680,7 @@
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
-      <c r="E261"/>
+      <c r="E261" s="65"/>
       <c r="F261"/>
       <c r="G261"/>
       <c r="H261"/>
@@ -14694,7 +14701,7 @@
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
-      <c r="E262"/>
+      <c r="E262" s="65"/>
       <c r="F262"/>
       <c r="G262"/>
       <c r="H262"/>
@@ -14715,7 +14722,7 @@
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
-      <c r="E263"/>
+      <c r="E263" s="65"/>
       <c r="F263"/>
       <c r="G263"/>
       <c r="H263"/>
@@ -14736,7 +14743,7 @@
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
-      <c r="E264"/>
+      <c r="E264" s="65"/>
       <c r="F264"/>
       <c r="G264"/>
       <c r="H264"/>
@@ -14757,7 +14764,7 @@
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
-      <c r="E265"/>
+      <c r="E265" s="65"/>
       <c r="F265"/>
       <c r="G265"/>
       <c r="H265"/>
@@ -14778,7 +14785,7 @@
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
-      <c r="E266"/>
+      <c r="E266" s="65"/>
       <c r="F266"/>
       <c r="G266"/>
       <c r="H266"/>
@@ -14799,7 +14806,7 @@
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
-      <c r="E267"/>
+      <c r="E267" s="65"/>
       <c r="F267"/>
       <c r="G267"/>
       <c r="H267"/>
@@ -14820,7 +14827,7 @@
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
-      <c r="E268"/>
+      <c r="E268" s="65"/>
       <c r="F268"/>
       <c r="G268"/>
       <c r="H268"/>
@@ -14841,7 +14848,7 @@
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
-      <c r="E269"/>
+      <c r="E269" s="65"/>
       <c r="F269"/>
       <c r="G269"/>
       <c r="H269"/>
@@ -14862,7 +14869,7 @@
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
-      <c r="E270"/>
+      <c r="E270" s="65"/>
       <c r="F270"/>
       <c r="G270"/>
       <c r="H270"/>
@@ -14883,7 +14890,7 @@
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
-      <c r="E271"/>
+      <c r="E271" s="65"/>
       <c r="F271"/>
       <c r="G271"/>
       <c r="H271"/>
@@ -14904,7 +14911,7 @@
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
-      <c r="E272"/>
+      <c r="E272" s="65"/>
       <c r="F272"/>
       <c r="G272"/>
       <c r="H272"/>
@@ -14925,7 +14932,7 @@
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
-      <c r="E273"/>
+      <c r="E273" s="65"/>
       <c r="F273"/>
       <c r="G273"/>
       <c r="H273"/>
@@ -14946,7 +14953,7 @@
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
-      <c r="E274"/>
+      <c r="E274" s="65"/>
       <c r="F274"/>
       <c r="G274"/>
       <c r="H274"/>
@@ -14967,7 +14974,7 @@
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
-      <c r="E275"/>
+      <c r="E275" s="65"/>
       <c r="F275"/>
       <c r="G275"/>
       <c r="H275"/>
@@ -14988,7 +14995,7 @@
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
-      <c r="E276"/>
+      <c r="E276" s="65"/>
       <c r="F276"/>
       <c r="G276"/>
       <c r="H276"/>
@@ -15009,7 +15016,7 @@
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
-      <c r="E277"/>
+      <c r="E277" s="65"/>
       <c r="F277"/>
       <c r="G277"/>
       <c r="H277"/>
@@ -15030,7 +15037,7 @@
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
-      <c r="E278"/>
+      <c r="E278" s="65"/>
       <c r="F278"/>
       <c r="G278"/>
       <c r="H278"/>
@@ -15051,7 +15058,7 @@
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
-      <c r="E279"/>
+      <c r="E279" s="65"/>
       <c r="F279"/>
       <c r="G279"/>
       <c r="H279"/>
@@ -15072,7 +15079,7 @@
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
-      <c r="E280"/>
+      <c r="E280" s="65"/>
       <c r="F280"/>
       <c r="G280"/>
       <c r="H280"/>
@@ -15093,7 +15100,7 @@
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
-      <c r="E281"/>
+      <c r="E281" s="65"/>
       <c r="F281"/>
       <c r="G281"/>
       <c r="H281"/>
@@ -15114,7 +15121,7 @@
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
-      <c r="E282"/>
+      <c r="E282" s="65"/>
       <c r="F282"/>
       <c r="G282"/>
       <c r="H282"/>
@@ -15135,7 +15142,7 @@
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
-      <c r="E283"/>
+      <c r="E283" s="65"/>
       <c r="F283"/>
       <c r="G283"/>
       <c r="H283"/>
@@ -15156,7 +15163,7 @@
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
-      <c r="E284"/>
+      <c r="E284" s="65"/>
       <c r="F284"/>
       <c r="G284"/>
       <c r="H284"/>
@@ -15177,7 +15184,7 @@
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
-      <c r="E285"/>
+      <c r="E285" s="65"/>
       <c r="F285"/>
       <c r="G285"/>
       <c r="H285"/>
@@ -15198,7 +15205,7 @@
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
-      <c r="E286"/>
+      <c r="E286" s="65"/>
       <c r="F286"/>
       <c r="G286"/>
       <c r="H286"/>
@@ -15219,7 +15226,7 @@
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
-      <c r="E287"/>
+      <c r="E287" s="65"/>
       <c r="F287"/>
       <c r="G287"/>
       <c r="H287"/>
@@ -15240,7 +15247,7 @@
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
-      <c r="E288"/>
+      <c r="E288" s="65"/>
       <c r="F288"/>
       <c r="G288"/>
       <c r="H288"/>
@@ -15261,7 +15268,7 @@
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
-      <c r="E289"/>
+      <c r="E289" s="65"/>
       <c r="F289"/>
       <c r="G289"/>
       <c r="H289"/>
@@ -15282,7 +15289,7 @@
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
-      <c r="E290"/>
+      <c r="E290" s="65"/>
       <c r="F290"/>
       <c r="G290"/>
       <c r="H290"/>
@@ -15303,7 +15310,7 @@
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
-      <c r="E291"/>
+      <c r="E291" s="65"/>
       <c r="F291"/>
       <c r="G291"/>
       <c r="H291"/>
@@ -15324,7 +15331,7 @@
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
-      <c r="E292"/>
+      <c r="E292" s="65"/>
       <c r="F292"/>
       <c r="G292"/>
       <c r="H292"/>
@@ -15345,7 +15352,7 @@
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
-      <c r="E293"/>
+      <c r="E293" s="65"/>
       <c r="F293"/>
       <c r="G293"/>
       <c r="H293"/>
@@ -15366,7 +15373,7 @@
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
-      <c r="E294"/>
+      <c r="E294" s="65"/>
       <c r="F294"/>
       <c r="G294"/>
       <c r="H294"/>
@@ -15387,7 +15394,7 @@
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
-      <c r="E295"/>
+      <c r="E295" s="65"/>
       <c r="F295"/>
       <c r="G295"/>
       <c r="H295"/>
@@ -15408,7 +15415,7 @@
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
-      <c r="E296"/>
+      <c r="E296" s="65"/>
       <c r="F296"/>
       <c r="G296"/>
       <c r="H296"/>
@@ -15429,7 +15436,7 @@
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
-      <c r="E297"/>
+      <c r="E297" s="65"/>
       <c r="F297"/>
       <c r="G297"/>
       <c r="H297"/>
@@ -15450,7 +15457,7 @@
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
-      <c r="E298"/>
+      <c r="E298" s="65"/>
       <c r="F298"/>
       <c r="G298"/>
       <c r="H298"/>
@@ -15471,7 +15478,7 @@
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
-      <c r="E299"/>
+      <c r="E299" s="65"/>
       <c r="F299"/>
       <c r="G299"/>
       <c r="H299"/>
@@ -15492,7 +15499,7 @@
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
-      <c r="E300"/>
+      <c r="E300" s="65"/>
       <c r="F300"/>
       <c r="G300"/>
       <c r="H300"/>
@@ -15513,7 +15520,7 @@
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
-      <c r="E301"/>
+      <c r="E301" s="65"/>
       <c r="F301"/>
       <c r="G301"/>
       <c r="H301"/>
@@ -15534,7 +15541,7 @@
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
-      <c r="E302"/>
+      <c r="E302" s="65"/>
       <c r="F302"/>
       <c r="G302"/>
       <c r="H302"/>
@@ -15555,7 +15562,7 @@
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
-      <c r="E303"/>
+      <c r="E303" s="65"/>
       <c r="F303"/>
       <c r="G303"/>
       <c r="H303"/>
@@ -15576,7 +15583,7 @@
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
-      <c r="E304"/>
+      <c r="E304" s="65"/>
       <c r="F304"/>
       <c r="G304"/>
       <c r="H304"/>
@@ -15597,7 +15604,7 @@
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
-      <c r="E305"/>
+      <c r="E305" s="65"/>
       <c r="F305"/>
       <c r="G305"/>
       <c r="H305"/>
@@ -15618,7 +15625,7 @@
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
-      <c r="E306"/>
+      <c r="E306" s="65"/>
       <c r="F306"/>
       <c r="G306"/>
       <c r="H306"/>
@@ -15639,7 +15646,7 @@
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
-      <c r="E307"/>
+      <c r="E307" s="65"/>
       <c r="F307"/>
       <c r="G307"/>
       <c r="H307"/>
@@ -15660,7 +15667,7 @@
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
-      <c r="E308"/>
+      <c r="E308" s="65"/>
       <c r="F308"/>
       <c r="G308"/>
       <c r="H308"/>
@@ -15681,7 +15688,7 @@
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
-      <c r="E309"/>
+      <c r="E309" s="65"/>
       <c r="F309"/>
       <c r="G309"/>
       <c r="H309"/>
@@ -15702,7 +15709,7 @@
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
-      <c r="E310"/>
+      <c r="E310" s="65"/>
       <c r="F310"/>
       <c r="G310"/>
       <c r="H310"/>
@@ -15723,7 +15730,7 @@
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
-      <c r="E311"/>
+      <c r="E311" s="65"/>
       <c r="F311"/>
       <c r="G311"/>
       <c r="H311"/>
@@ -15744,7 +15751,7 @@
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
-      <c r="E312"/>
+      <c r="E312" s="65"/>
       <c r="F312"/>
       <c r="G312"/>
       <c r="H312"/>
@@ -15765,7 +15772,7 @@
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
-      <c r="E313"/>
+      <c r="E313" s="65"/>
       <c r="F313"/>
       <c r="G313"/>
       <c r="H313"/>
@@ -15786,7 +15793,7 @@
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
-      <c r="E314"/>
+      <c r="E314" s="65"/>
       <c r="F314"/>
       <c r="G314"/>
       <c r="H314"/>
@@ -15807,7 +15814,7 @@
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
-      <c r="E315"/>
+      <c r="E315" s="65"/>
       <c r="F315"/>
       <c r="G315"/>
       <c r="H315"/>
@@ -15828,7 +15835,7 @@
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
-      <c r="E316"/>
+      <c r="E316" s="65"/>
       <c r="F316"/>
       <c r="G316"/>
       <c r="H316"/>
@@ -15849,7 +15856,7 @@
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
-      <c r="E317"/>
+      <c r="E317" s="65"/>
       <c r="F317"/>
       <c r="G317"/>
       <c r="H317"/>
@@ -15870,7 +15877,7 @@
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
-      <c r="E318"/>
+      <c r="E318" s="65"/>
       <c r="F318"/>
       <c r="G318"/>
       <c r="H318"/>
@@ -15891,7 +15898,7 @@
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
-      <c r="E319"/>
+      <c r="E319" s="65"/>
       <c r="F319"/>
       <c r="G319"/>
       <c r="H319"/>
@@ -15912,7 +15919,7 @@
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
-      <c r="E320"/>
+      <c r="E320" s="65"/>
       <c r="F320"/>
       <c r="G320"/>
       <c r="H320"/>
@@ -15933,7 +15940,7 @@
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
-      <c r="E321"/>
+      <c r="E321" s="65"/>
       <c r="F321"/>
       <c r="G321"/>
       <c r="H321"/>
@@ -15954,7 +15961,7 @@
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
-      <c r="E322"/>
+      <c r="E322" s="65"/>
       <c r="F322"/>
       <c r="G322"/>
       <c r="H322"/>
@@ -15975,7 +15982,7 @@
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
-      <c r="E323"/>
+      <c r="E323" s="65"/>
       <c r="F323"/>
       <c r="G323"/>
       <c r="H323"/>
@@ -15996,7 +16003,7 @@
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
-      <c r="E324"/>
+      <c r="E324" s="65"/>
       <c r="F324"/>
       <c r="G324"/>
       <c r="H324"/>
@@ -16017,7 +16024,7 @@
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
-      <c r="E325"/>
+      <c r="E325" s="65"/>
       <c r="F325"/>
       <c r="G325"/>
       <c r="H325"/>
@@ -16038,7 +16045,7 @@
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
-      <c r="E326"/>
+      <c r="E326" s="65"/>
       <c r="F326"/>
       <c r="G326"/>
       <c r="H326"/>
@@ -16059,7 +16066,7 @@
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
-      <c r="E327"/>
+      <c r="E327" s="65"/>
       <c r="F327"/>
       <c r="G327"/>
       <c r="H327"/>
@@ -16080,7 +16087,7 @@
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
-      <c r="E328"/>
+      <c r="E328" s="65"/>
       <c r="F328"/>
       <c r="G328"/>
       <c r="H328"/>
@@ -16101,7 +16108,7 @@
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
-      <c r="E329"/>
+      <c r="E329" s="65"/>
       <c r="F329"/>
       <c r="G329"/>
       <c r="H329"/>
@@ -16122,7 +16129,7 @@
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
-      <c r="E330"/>
+      <c r="E330" s="65"/>
       <c r="F330"/>
       <c r="G330"/>
       <c r="H330"/>
@@ -16143,7 +16150,7 @@
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
-      <c r="E331"/>
+      <c r="E331" s="65"/>
       <c r="F331"/>
       <c r="G331"/>
       <c r="H331"/>
@@ -16164,7 +16171,7 @@
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
-      <c r="E332"/>
+      <c r="E332" s="65"/>
       <c r="F332"/>
       <c r="G332"/>
       <c r="H332"/>
@@ -16185,7 +16192,7 @@
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
-      <c r="E333"/>
+      <c r="E333" s="65"/>
       <c r="F333"/>
       <c r="G333"/>
       <c r="H333"/>
@@ -16206,7 +16213,7 @@
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
-      <c r="E334"/>
+      <c r="E334" s="65"/>
       <c r="F334"/>
       <c r="G334"/>
       <c r="H334"/>
@@ -16227,7 +16234,7 @@
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
-      <c r="E335"/>
+      <c r="E335" s="65"/>
       <c r="F335"/>
       <c r="G335"/>
       <c r="H335"/>
@@ -16248,7 +16255,7 @@
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
-      <c r="E336"/>
+      <c r="E336" s="65"/>
       <c r="F336"/>
       <c r="G336"/>
       <c r="H336"/>
@@ -16269,7 +16276,7 @@
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
-      <c r="E337"/>
+      <c r="E337" s="65"/>
       <c r="F337"/>
       <c r="G337"/>
       <c r="H337"/>
@@ -16290,7 +16297,7 @@
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
-      <c r="E338"/>
+      <c r="E338" s="65"/>
       <c r="F338"/>
       <c r="G338"/>
       <c r="H338"/>
@@ -16311,7 +16318,7 @@
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
-      <c r="E339"/>
+      <c r="E339" s="65"/>
       <c r="F339"/>
       <c r="G339"/>
       <c r="H339"/>
@@ -16332,7 +16339,7 @@
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
-      <c r="E340"/>
+      <c r="E340" s="65"/>
       <c r="F340"/>
       <c r="G340"/>
       <c r="H340"/>
@@ -16353,7 +16360,7 @@
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
-      <c r="E341"/>
+      <c r="E341" s="65"/>
       <c r="F341"/>
       <c r="G341"/>
       <c r="H341"/>
@@ -16374,7 +16381,7 @@
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
-      <c r="E342"/>
+      <c r="E342" s="65"/>
       <c r="F342"/>
       <c r="G342"/>
       <c r="H342"/>
@@ -16395,7 +16402,7 @@
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
-      <c r="E343"/>
+      <c r="E343" s="65"/>
       <c r="F343"/>
       <c r="G343"/>
       <c r="H343"/>
@@ -16416,7 +16423,7 @@
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
-      <c r="E344"/>
+      <c r="E344" s="65"/>
       <c r="F344"/>
       <c r="G344"/>
       <c r="H344"/>
@@ -16437,7 +16444,7 @@
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
-      <c r="E345"/>
+      <c r="E345" s="65"/>
       <c r="F345"/>
       <c r="G345"/>
       <c r="H345"/>
@@ -16458,7 +16465,7 @@
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
-      <c r="E346"/>
+      <c r="E346" s="65"/>
       <c r="F346"/>
       <c r="G346"/>
       <c r="H346"/>
@@ -16479,7 +16486,7 @@
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
-      <c r="E347"/>
+      <c r="E347" s="65"/>
       <c r="F347"/>
       <c r="G347"/>
       <c r="H347"/>
@@ -16500,7 +16507,7 @@
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
-      <c r="E348"/>
+      <c r="E348" s="65"/>
       <c r="F348"/>
       <c r="G348"/>
       <c r="H348"/>
@@ -16521,7 +16528,7 @@
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
-      <c r="E349"/>
+      <c r="E349" s="65"/>
       <c r="F349"/>
       <c r="G349"/>
       <c r="H349"/>
@@ -16542,7 +16549,7 @@
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
-      <c r="E350"/>
+      <c r="E350" s="65"/>
       <c r="F350"/>
       <c r="G350"/>
       <c r="H350"/>
@@ -16563,7 +16570,7 @@
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
-      <c r="E351"/>
+      <c r="E351" s="65"/>
       <c r="F351"/>
       <c r="G351"/>
       <c r="H351"/>
@@ -16584,7 +16591,7 @@
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
-      <c r="E352"/>
+      <c r="E352" s="65"/>
       <c r="F352"/>
       <c r="G352"/>
       <c r="H352"/>
@@ -16605,7 +16612,7 @@
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
-      <c r="E353"/>
+      <c r="E353" s="65"/>
       <c r="F353"/>
       <c r="G353"/>
       <c r="H353"/>
@@ -16626,7 +16633,7 @@
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
-      <c r="E354"/>
+      <c r="E354" s="65"/>
       <c r="F354"/>
       <c r="G354"/>
       <c r="H354"/>
@@ -16647,7 +16654,7 @@
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
-      <c r="E355"/>
+      <c r="E355" s="65"/>
       <c r="F355"/>
       <c r="G355"/>
       <c r="H355"/>
@@ -16668,7 +16675,7 @@
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
-      <c r="E356"/>
+      <c r="E356" s="65"/>
       <c r="F356"/>
       <c r="G356"/>
       <c r="H356"/>
@@ -16689,7 +16696,7 @@
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
-      <c r="E357"/>
+      <c r="E357" s="65"/>
       <c r="F357"/>
       <c r="G357"/>
       <c r="H357"/>
@@ -16710,7 +16717,7 @@
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
-      <c r="E358"/>
+      <c r="E358" s="65"/>
       <c r="F358"/>
       <c r="G358"/>
       <c r="H358"/>
@@ -16731,7 +16738,7 @@
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
-      <c r="E359"/>
+      <c r="E359" s="65"/>
       <c r="F359"/>
       <c r="G359"/>
       <c r="H359"/>
@@ -16752,7 +16759,7 @@
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
-      <c r="E360"/>
+      <c r="E360" s="65"/>
       <c r="F360"/>
       <c r="G360"/>
       <c r="H360"/>
@@ -16773,7 +16780,7 @@
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
-      <c r="E361"/>
+      <c r="E361" s="65"/>
       <c r="F361"/>
       <c r="G361"/>
       <c r="H361"/>
@@ -16794,7 +16801,7 @@
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
-      <c r="E362"/>
+      <c r="E362" s="65"/>
       <c r="F362"/>
       <c r="G362"/>
       <c r="H362"/>
@@ -16815,7 +16822,7 @@
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
-      <c r="E363"/>
+      <c r="E363" s="65"/>
       <c r="F363"/>
       <c r="G363"/>
       <c r="H363"/>
@@ -16836,7 +16843,7 @@
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
-      <c r="E364"/>
+      <c r="E364" s="65"/>
       <c r="F364"/>
       <c r="G364"/>
       <c r="H364"/>
@@ -16857,7 +16864,7 @@
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
-      <c r="E365"/>
+      <c r="E365" s="65"/>
       <c r="F365"/>
       <c r="G365"/>
       <c r="H365"/>
@@ -16878,7 +16885,7 @@
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
-      <c r="E366"/>
+      <c r="E366" s="65"/>
       <c r="F366"/>
       <c r="G366"/>
       <c r="H366"/>
@@ -16899,7 +16906,7 @@
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
-      <c r="E367"/>
+      <c r="E367" s="65"/>
       <c r="F367"/>
       <c r="G367"/>
       <c r="H367"/>
@@ -16920,7 +16927,7 @@
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
-      <c r="E368"/>
+      <c r="E368" s="65"/>
       <c r="F368"/>
       <c r="G368"/>
       <c r="H368"/>
@@ -16941,7 +16948,7 @@
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
-      <c r="E369"/>
+      <c r="E369" s="65"/>
       <c r="F369"/>
       <c r="G369"/>
       <c r="H369"/>
@@ -16962,7 +16969,7 @@
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
-      <c r="E370"/>
+      <c r="E370" s="65"/>
       <c r="F370"/>
       <c r="G370"/>
       <c r="H370"/>
@@ -16983,7 +16990,7 @@
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
-      <c r="E371"/>
+      <c r="E371" s="65"/>
       <c r="F371"/>
       <c r="G371"/>
       <c r="H371"/>
@@ -17004,7 +17011,7 @@
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
-      <c r="E372"/>
+      <c r="E372" s="65"/>
       <c r="F372"/>
       <c r="G372"/>
       <c r="H372"/>
@@ -17025,7 +17032,7 @@
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
-      <c r="E373"/>
+      <c r="E373" s="65"/>
       <c r="F373"/>
       <c r="G373"/>
       <c r="H373"/>
@@ -17046,7 +17053,7 @@
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
-      <c r="E374"/>
+      <c r="E374" s="65"/>
       <c r="F374"/>
       <c r="G374"/>
       <c r="H374"/>
@@ -17067,7 +17074,7 @@
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
-      <c r="E375"/>
+      <c r="E375" s="65"/>
       <c r="F375"/>
       <c r="G375"/>
       <c r="H375"/>
@@ -17088,7 +17095,7 @@
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
-      <c r="E376"/>
+      <c r="E376" s="65"/>
       <c r="F376"/>
       <c r="G376"/>
       <c r="H376"/>
@@ -17109,7 +17116,7 @@
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
-      <c r="E377"/>
+      <c r="E377" s="65"/>
       <c r="F377"/>
       <c r="G377"/>
       <c r="H377"/>
@@ -17130,7 +17137,7 @@
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
-      <c r="E378"/>
+      <c r="E378" s="65"/>
       <c r="F378"/>
       <c r="G378"/>
       <c r="H378"/>
@@ -17151,7 +17158,7 @@
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
-      <c r="E379"/>
+      <c r="E379" s="65"/>
       <c r="F379"/>
       <c r="G379"/>
       <c r="H379"/>
@@ -17172,7 +17179,7 @@
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
-      <c r="E380"/>
+      <c r="E380" s="65"/>
       <c r="F380"/>
       <c r="G380"/>
       <c r="H380"/>
@@ -17193,7 +17200,7 @@
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
-      <c r="E381"/>
+      <c r="E381" s="65"/>
       <c r="F381"/>
       <c r="G381"/>
       <c r="H381"/>
@@ -17214,7 +17221,7 @@
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
-      <c r="E382"/>
+      <c r="E382" s="65"/>
       <c r="F382"/>
       <c r="G382"/>
       <c r="H382"/>
@@ -17235,7 +17242,7 @@
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
-      <c r="E383"/>
+      <c r="E383" s="65"/>
       <c r="F383"/>
       <c r="G383"/>
       <c r="H383"/>
@@ -17256,7 +17263,7 @@
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
-      <c r="E384"/>
+      <c r="E384" s="65"/>
       <c r="F384"/>
       <c r="G384"/>
       <c r="H384"/>
@@ -17277,7 +17284,7 @@
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
-      <c r="E385"/>
+      <c r="E385" s="65"/>
       <c r="F385"/>
       <c r="G385"/>
       <c r="H385"/>
@@ -17298,7 +17305,7 @@
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
-      <c r="E386"/>
+      <c r="E386" s="65"/>
       <c r="F386"/>
       <c r="G386"/>
       <c r="H386"/>
@@ -17319,7 +17326,7 @@
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
-      <c r="E387"/>
+      <c r="E387" s="65"/>
       <c r="F387"/>
       <c r="G387"/>
       <c r="H387"/>
@@ -17340,7 +17347,7 @@
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
-      <c r="E388"/>
+      <c r="E388" s="65"/>
       <c r="F388"/>
       <c r="G388"/>
       <c r="H388"/>
@@ -17361,7 +17368,7 @@
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
-      <c r="E389"/>
+      <c r="E389" s="65"/>
       <c r="F389"/>
       <c r="G389"/>
       <c r="H389"/>
@@ -17382,7 +17389,7 @@
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
-      <c r="E390"/>
+      <c r="E390" s="65"/>
       <c r="F390"/>
       <c r="G390"/>
       <c r="H390"/>
@@ -17403,7 +17410,7 @@
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
-      <c r="E391"/>
+      <c r="E391" s="65"/>
       <c r="F391"/>
       <c r="G391"/>
       <c r="H391"/>
@@ -17424,7 +17431,7 @@
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
-      <c r="E392"/>
+      <c r="E392" s="65"/>
       <c r="F392"/>
       <c r="G392"/>
       <c r="H392"/>
@@ -17445,7 +17452,7 @@
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
-      <c r="E393"/>
+      <c r="E393" s="65"/>
       <c r="F393"/>
       <c r="G393"/>
       <c r="H393"/>
@@ -17466,7 +17473,7 @@
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
-      <c r="E394"/>
+      <c r="E394" s="65"/>
       <c r="F394"/>
       <c r="G394"/>
       <c r="H394"/>
@@ -17487,7 +17494,7 @@
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
-      <c r="E395"/>
+      <c r="E395" s="65"/>
       <c r="F395"/>
       <c r="G395"/>
       <c r="H395"/>
@@ -17508,7 +17515,7 @@
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
-      <c r="E396"/>
+      <c r="E396" s="65"/>
       <c r="F396"/>
       <c r="G396"/>
       <c r="H396"/>
@@ -17529,7 +17536,7 @@
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
-      <c r="E397"/>
+      <c r="E397" s="65"/>
       <c r="F397"/>
       <c r="G397"/>
       <c r="H397"/>
@@ -17550,7 +17557,7 @@
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
-      <c r="E398"/>
+      <c r="E398" s="65"/>
       <c r="F398"/>
       <c r="G398"/>
       <c r="H398"/>
@@ -17571,7 +17578,7 @@
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
-      <c r="E399"/>
+      <c r="E399" s="65"/>
       <c r="F399"/>
       <c r="G399"/>
       <c r="H399"/>
@@ -17592,7 +17599,7 @@
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
-      <c r="E400"/>
+      <c r="E400" s="65"/>
       <c r="F400"/>
       <c r="G400"/>
       <c r="H400"/>
@@ -17613,7 +17620,7 @@
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
-      <c r="E401"/>
+      <c r="E401" s="65"/>
       <c r="F401"/>
       <c r="G401"/>
       <c r="H401"/>
@@ -17634,7 +17641,7 @@
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
-      <c r="E402"/>
+      <c r="E402" s="65"/>
       <c r="F402"/>
       <c r="G402"/>
       <c r="H402"/>
@@ -17655,7 +17662,7 @@
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
-      <c r="E403"/>
+      <c r="E403" s="65"/>
       <c r="F403"/>
       <c r="G403"/>
       <c r="H403"/>
@@ -17676,7 +17683,7 @@
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
-      <c r="E404"/>
+      <c r="E404" s="65"/>
       <c r="F404"/>
       <c r="G404"/>
       <c r="H404"/>
@@ -17697,7 +17704,7 @@
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
-      <c r="E405"/>
+      <c r="E405" s="65"/>
       <c r="F405"/>
       <c r="G405"/>
       <c r="H405"/>
@@ -17718,7 +17725,7 @@
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
-      <c r="E406"/>
+      <c r="E406" s="65"/>
       <c r="F406"/>
       <c r="G406"/>
       <c r="H406"/>
@@ -17739,7 +17746,7 @@
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
-      <c r="E407"/>
+      <c r="E407" s="65"/>
       <c r="F407"/>
       <c r="G407"/>
       <c r="H407"/>
@@ -17760,7 +17767,7 @@
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
-      <c r="E408"/>
+      <c r="E408" s="65"/>
       <c r="F408"/>
       <c r="G408"/>
       <c r="H408"/>
@@ -17781,7 +17788,7 @@
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
-      <c r="E409"/>
+      <c r="E409" s="65"/>
       <c r="F409"/>
       <c r="G409"/>
       <c r="H409"/>
@@ -17802,7 +17809,7 @@
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
-      <c r="E410"/>
+      <c r="E410" s="65"/>
       <c r="F410"/>
       <c r="G410"/>
       <c r="H410"/>
@@ -17823,7 +17830,7 @@
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
-      <c r="E411"/>
+      <c r="E411" s="65"/>
       <c r="F411"/>
       <c r="G411"/>
       <c r="H411"/>
@@ -17844,7 +17851,7 @@
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
-      <c r="E412"/>
+      <c r="E412" s="65"/>
       <c r="F412"/>
       <c r="G412"/>
       <c r="H412"/>
@@ -17865,7 +17872,7 @@
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
-      <c r="E413"/>
+      <c r="E413" s="65"/>
       <c r="F413"/>
       <c r="G413"/>
       <c r="H413"/>
@@ -17886,7 +17893,7 @@
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
-      <c r="E414"/>
+      <c r="E414" s="65"/>
       <c r="F414"/>
       <c r="G414"/>
       <c r="H414"/>
@@ -17907,7 +17914,7 @@
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
-      <c r="E415"/>
+      <c r="E415" s="65"/>
       <c r="F415"/>
       <c r="G415"/>
       <c r="H415"/>
@@ -17928,7 +17935,7 @@
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
-      <c r="E416"/>
+      <c r="E416" s="65"/>
       <c r="F416"/>
       <c r="G416"/>
       <c r="H416"/>
@@ -17949,7 +17956,7 @@
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
-      <c r="E417"/>
+      <c r="E417" s="65"/>
       <c r="F417"/>
       <c r="G417"/>
       <c r="H417"/>
@@ -17970,7 +17977,7 @@
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
-      <c r="E418"/>
+      <c r="E418" s="65"/>
       <c r="F418"/>
       <c r="G418"/>
       <c r="H418"/>
@@ -17991,7 +17998,7 @@
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
-      <c r="E419"/>
+      <c r="E419" s="65"/>
       <c r="F419"/>
       <c r="G419"/>
       <c r="H419"/>
@@ -18012,7 +18019,7 @@
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
-      <c r="E420"/>
+      <c r="E420" s="65"/>
       <c r="F420"/>
       <c r="G420"/>
       <c r="H420"/>
@@ -18033,7 +18040,7 @@
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
-      <c r="E421"/>
+      <c r="E421" s="65"/>
       <c r="F421"/>
       <c r="G421"/>
       <c r="H421"/>
@@ -18054,7 +18061,7 @@
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
-      <c r="E422"/>
+      <c r="E422" s="65"/>
       <c r="F422"/>
       <c r="G422"/>
       <c r="H422"/>
@@ -18075,7 +18082,7 @@
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
-      <c r="E423"/>
+      <c r="E423" s="65"/>
       <c r="F423"/>
       <c r="G423"/>
       <c r="H423"/>
@@ -18096,7 +18103,7 @@
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
-      <c r="E424"/>
+      <c r="E424" s="65"/>
       <c r="F424"/>
       <c r="G424"/>
       <c r="H424"/>
@@ -18117,7 +18124,7 @@
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
-      <c r="E425"/>
+      <c r="E425" s="65"/>
       <c r="F425"/>
       <c r="G425"/>
       <c r="H425"/>
@@ -18138,7 +18145,7 @@
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
-      <c r="E426"/>
+      <c r="E426" s="65"/>
       <c r="F426"/>
       <c r="G426"/>
       <c r="H426"/>
@@ -18159,7 +18166,7 @@
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
-      <c r="E427"/>
+      <c r="E427" s="65"/>
       <c r="F427"/>
       <c r="G427"/>
       <c r="H427"/>
@@ -18180,7 +18187,7 @@
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
-      <c r="E428"/>
+      <c r="E428" s="65"/>
       <c r="F428"/>
       <c r="G428"/>
       <c r="H428"/>
@@ -18201,7 +18208,7 @@
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
-      <c r="E429"/>
+      <c r="E429" s="65"/>
       <c r="F429"/>
       <c r="G429"/>
       <c r="H429"/>
@@ -18222,7 +18229,7 @@
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
-      <c r="E430"/>
+      <c r="E430" s="65"/>
       <c r="F430"/>
       <c r="G430"/>
       <c r="H430"/>
@@ -18243,7 +18250,7 @@
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
-      <c r="E431"/>
+      <c r="E431" s="65"/>
       <c r="F431"/>
       <c r="G431"/>
       <c r="H431"/>
@@ -18264,7 +18271,7 @@
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
-      <c r="E432"/>
+      <c r="E432" s="65"/>
       <c r="F432"/>
       <c r="G432"/>
       <c r="H432"/>
@@ -18285,7 +18292,7 @@
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
-      <c r="E433"/>
+      <c r="E433" s="65"/>
       <c r="F433"/>
       <c r="G433"/>
       <c r="H433"/>
@@ -18306,7 +18313,7 @@
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
-      <c r="E434"/>
+      <c r="E434" s="65"/>
       <c r="F434"/>
       <c r="G434"/>
       <c r="H434"/>
@@ -18327,7 +18334,7 @@
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
-      <c r="E435"/>
+      <c r="E435" s="65"/>
       <c r="F435"/>
       <c r="G435"/>
       <c r="H435"/>
@@ -18348,7 +18355,7 @@
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
-      <c r="E436"/>
+      <c r="E436" s="65"/>
       <c r="F436"/>
       <c r="G436"/>
       <c r="H436"/>
@@ -18369,7 +18376,7 @@
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
-      <c r="E437"/>
+      <c r="E437" s="65"/>
       <c r="F437"/>
       <c r="G437"/>
       <c r="H437"/>
@@ -18390,7 +18397,7 @@
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
-      <c r="E438"/>
+      <c r="E438" s="65"/>
       <c r="F438"/>
       <c r="G438"/>
       <c r="H438"/>
@@ -18411,7 +18418,7 @@
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
-      <c r="E439"/>
+      <c r="E439" s="65"/>
       <c r="F439"/>
       <c r="G439"/>
       <c r="H439"/>
@@ -18432,7 +18439,7 @@
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
-      <c r="E440"/>
+      <c r="E440" s="65"/>
       <c r="F440"/>
       <c r="G440"/>
       <c r="H440"/>
@@ -18453,7 +18460,7 @@
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
-      <c r="E441"/>
+      <c r="E441" s="65"/>
       <c r="F441"/>
       <c r="G441"/>
       <c r="H441"/>
@@ -18474,7 +18481,7 @@
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
-      <c r="E442"/>
+      <c r="E442" s="65"/>
       <c r="F442"/>
       <c r="G442"/>
       <c r="H442"/>
@@ -18495,7 +18502,7 @@
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
-      <c r="E443"/>
+      <c r="E443" s="65"/>
       <c r="F443"/>
       <c r="G443"/>
       <c r="H443"/>
@@ -18516,7 +18523,7 @@
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
-      <c r="E444"/>
+      <c r="E444" s="65"/>
       <c r="F444"/>
       <c r="G444"/>
       <c r="H444"/>
@@ -18537,7 +18544,7 @@
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
-      <c r="E445"/>
+      <c r="E445" s="65"/>
       <c r="F445"/>
       <c r="G445"/>
       <c r="H445"/>
@@ -18558,7 +18565,7 @@
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
-      <c r="E446"/>
+      <c r="E446" s="65"/>
       <c r="F446"/>
       <c r="G446"/>
       <c r="H446"/>
@@ -18579,7 +18586,7 @@
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
-      <c r="E447"/>
+      <c r="E447" s="65"/>
       <c r="F447"/>
       <c r="G447"/>
       <c r="H447"/>
@@ -18600,7 +18607,7 @@
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
-      <c r="E448"/>
+      <c r="E448" s="65"/>
       <c r="F448"/>
       <c r="G448"/>
       <c r="H448"/>
@@ -18621,7 +18628,7 @@
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
-      <c r="E449"/>
+      <c r="E449" s="65"/>
       <c r="F449"/>
       <c r="G449"/>
       <c r="H449"/>
@@ -18642,7 +18649,7 @@
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
-      <c r="E450"/>
+      <c r="E450" s="65"/>
       <c r="F450"/>
       <c r="G450"/>
       <c r="H450"/>
@@ -18663,7 +18670,7 @@
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
-      <c r="E451"/>
+      <c r="E451" s="65"/>
       <c r="F451"/>
       <c r="G451"/>
       <c r="H451"/>
@@ -18684,7 +18691,7 @@
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
-      <c r="E452"/>
+      <c r="E452" s="65"/>
       <c r="F452"/>
       <c r="G452"/>
       <c r="H452"/>
@@ -18705,7 +18712,7 @@
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
-      <c r="E453"/>
+      <c r="E453" s="65"/>
       <c r="F453"/>
       <c r="G453"/>
       <c r="H453"/>
@@ -18726,7 +18733,7 @@
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
-      <c r="E454"/>
+      <c r="E454" s="65"/>
       <c r="F454"/>
       <c r="G454"/>
       <c r="H454"/>
@@ -18747,7 +18754,7 @@
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
-      <c r="E455"/>
+      <c r="E455" s="65"/>
       <c r="F455"/>
       <c r="G455"/>
       <c r="H455"/>
@@ -18768,7 +18775,7 @@
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
-      <c r="E456"/>
+      <c r="E456" s="65"/>
       <c r="F456"/>
       <c r="G456"/>
       <c r="H456"/>
@@ -18789,7 +18796,7 @@
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
-      <c r="E457"/>
+      <c r="E457" s="65"/>
       <c r="F457"/>
       <c r="G457"/>
       <c r="H457"/>
@@ -18810,7 +18817,7 @@
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
-      <c r="E458"/>
+      <c r="E458" s="65"/>
       <c r="F458"/>
       <c r="G458"/>
       <c r="H458"/>
@@ -18831,7 +18838,7 @@
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
-      <c r="E459"/>
+      <c r="E459" s="65"/>
       <c r="F459"/>
       <c r="G459"/>
       <c r="H459"/>
@@ -18852,7 +18859,7 @@
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
-      <c r="E460"/>
+      <c r="E460" s="65"/>
       <c r="F460"/>
       <c r="G460"/>
       <c r="H460"/>
@@ -18873,7 +18880,7 @@
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
-      <c r="E461"/>
+      <c r="E461" s="65"/>
       <c r="F461"/>
       <c r="G461"/>
       <c r="H461"/>
@@ -18894,7 +18901,7 @@
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
-      <c r="E462"/>
+      <c r="E462" s="65"/>
       <c r="F462"/>
       <c r="G462"/>
       <c r="H462"/>
@@ -18915,7 +18922,7 @@
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
-      <c r="E463"/>
+      <c r="E463" s="65"/>
       <c r="F463"/>
       <c r="G463"/>
       <c r="H463"/>
@@ -18936,7 +18943,7 @@
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
-      <c r="E464"/>
+      <c r="E464" s="65"/>
       <c r="F464"/>
       <c r="G464"/>
       <c r="H464"/>
@@ -18957,7 +18964,7 @@
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
-      <c r="E465"/>
+      <c r="E465" s="65"/>
       <c r="F465"/>
       <c r="G465"/>
       <c r="H465"/>
@@ -18978,7 +18985,7 @@
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
-      <c r="E466"/>
+      <c r="E466" s="65"/>
       <c r="F466"/>
       <c r="G466"/>
       <c r="H466"/>
@@ -18999,7 +19006,7 @@
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
-      <c r="E467"/>
+      <c r="E467" s="65"/>
       <c r="F467"/>
       <c r="G467"/>
       <c r="H467"/>
@@ -19020,7 +19027,7 @@
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
-      <c r="E468"/>
+      <c r="E468" s="65"/>
       <c r="F468"/>
       <c r="G468"/>
       <c r="H468"/>
@@ -19041,7 +19048,7 @@
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
-      <c r="E469"/>
+      <c r="E469" s="65"/>
       <c r="F469"/>
       <c r="G469"/>
       <c r="H469"/>
@@ -19062,7 +19069,7 @@
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
-      <c r="E470"/>
+      <c r="E470" s="65"/>
       <c r="F470"/>
       <c r="G470"/>
       <c r="H470"/>
@@ -19083,7 +19090,7 @@
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
-      <c r="E471"/>
+      <c r="E471" s="65"/>
       <c r="F471"/>
       <c r="G471"/>
       <c r="H471"/>
@@ -19104,7 +19111,7 @@
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
-      <c r="E472"/>
+      <c r="E472" s="65"/>
       <c r="F472"/>
       <c r="G472"/>
       <c r="H472"/>
@@ -19125,7 +19132,7 @@
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
-      <c r="E473"/>
+      <c r="E473" s="65"/>
       <c r="F473"/>
       <c r="G473"/>
       <c r="H473"/>
@@ -19146,7 +19153,7 @@
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
-      <c r="E474"/>
+      <c r="E474" s="65"/>
       <c r="F474"/>
       <c r="G474"/>
       <c r="H474"/>
@@ -19167,7 +19174,7 @@
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
-      <c r="E475"/>
+      <c r="E475" s="65"/>
       <c r="F475"/>
       <c r="G475"/>
       <c r="H475"/>
@@ -19188,7 +19195,7 @@
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
-      <c r="E476"/>
+      <c r="E476" s="65"/>
       <c r="F476"/>
       <c r="G476"/>
       <c r="H476"/>
@@ -19209,7 +19216,7 @@
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
-      <c r="E477"/>
+      <c r="E477" s="65"/>
       <c r="F477"/>
       <c r="G477"/>
       <c r="H477"/>
@@ -19230,7 +19237,7 @@
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
-      <c r="E478"/>
+      <c r="E478" s="65"/>
       <c r="F478"/>
       <c r="G478"/>
       <c r="H478"/>
@@ -19251,7 +19258,7 @@
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
-      <c r="E479"/>
+      <c r="E479" s="65"/>
       <c r="F479"/>
       <c r="G479"/>
       <c r="H479"/>
@@ -19272,7 +19279,7 @@
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
-      <c r="E480"/>
+      <c r="E480" s="65"/>
       <c r="F480"/>
       <c r="G480"/>
       <c r="H480"/>
@@ -19293,7 +19300,7 @@
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
-      <c r="E481"/>
+      <c r="E481" s="65"/>
       <c r="F481"/>
       <c r="G481"/>
       <c r="H481"/>
@@ -19314,7 +19321,7 @@
       <c r="B482"/>
       <c r="C482"/>
       <c r="D482"/>
-      <c r="E482"/>
+      <c r="E482" s="65"/>
       <c r="F482"/>
       <c r="G482"/>
       <c r="H482"/>
@@ -19335,7 +19342,7 @@
       <c r="B483"/>
       <c r="C483"/>
       <c r="D483"/>
-      <c r="E483"/>
+      <c r="E483" s="65"/>
       <c r="F483"/>
       <c r="G483"/>
       <c r="H483"/>
@@ -19418,64 +19425,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6A9E29-FE05-45F3-BEBD-3819AE49E735}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="58" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="58"/>
-    <col min="3" max="3" width="101.5" style="58" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="58"/>
+    <col min="1" max="1" width="12" style="56" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="56"/>
+    <col min="3" max="3" width="101.5" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="60">
-        <v>1</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="60">
+      <c r="B4" s="58">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="60">
+      <c r="B5" s="58">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="60">
+      <c r="B6" s="58">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="59" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="60">
+      <c r="B7" s="58">
         <v>5</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>328</v>
       </c>
     </row>
